--- a/hrds-commons/src/main/java/hrds/commons/script/spark-2.3函数.xlsx
+++ b/hrds-commons/src/main/java/hrds/commons/script/spark-2.3函数.xlsx
@@ -5604,10 +5604,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Computes the cube-root of the given value.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>转换数值（字符串）的进制</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -5636,10 +5632,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Returns the positive value of dividend mod divisor.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>rlr^lrl 注意r是列</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -5657,10 +5649,6 @@
   </si>
   <si>
     <t>角度转弧度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Returns the double value that is closest in value to the argument and is equal to a mathematical integer.</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -6029,609 +6017,618 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>返回单调递增唯一ID，但不同分区的ID不连续。ID为64位整型。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanvl(col1: Column, col2: Column)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>col1为NaN则返回col2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>负数，同df.select( -df(“amount”) )</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>取反，同df.filter( !df(“isActive”) )</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机数[0.0, 1.0]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机数[0.0, 1.0]，使用seed种子</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机数，从正态分布取</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回partition ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>多列组合成新的struct column ？？</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>when(condition: Column, value: Any)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>当condition为true返回value，如people.select(when(people(“gender”) === “male”, 0).when(people(“gender”) === “female”, 1).otherwise(2)) 如果没有otherwise且condition全部没命中，则返回null.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序函数</t>
+  </si>
+  <si>
+    <t>字符串函数</t>
+  </si>
+  <si>
+    <t>正序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>正序，null排最前</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>正序，null排最后</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆序 e.g：df.sort(asc(“dept”), desc(“age”))</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDF函数</t>
+  </si>
+  <si>
+    <t>计算第一个字符的ascii码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>base64转码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>base64解码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接多列字符串</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用sep作为分隔符连接多列字符串</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>解码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>转码，charset支持 ‘US-ASCII’, ‘ISO-8859-1’, ‘UTF-8’, ‘UTF-16BE’, ‘UTF-16LE’, ‘UTF-16’。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>将arguments按format格式化，格式为printf-style。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词首字母大写</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>转小写</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>转大写</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>substring在str中第一次出现的位置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串长度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算两个字符串之间的编辑距离（Levenshtein distance）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>substring在str中第一次出现的位置，位置编号从1开始，0表示未找到。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上，但从pos位置后查找。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串左填充。用pad字符填充str的字符串至len长度。有对应的rpad，右填充。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪掉左边的空格、空白字符，对应有rtrim.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪掉左边的指定字符,对应有rtrim.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪掉左右两边的指定字符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪掉左右两边的空格、空白字符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则提取匹配的组</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则替换匹配的部分，这里参数为列。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则替换匹配的部分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>将str重复n次返回</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>将str反转</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算桑迪克斯代码（soundex code）PS:用于按英语发音来索引姓名,发音相同但拼写不同的单词，会映射成同一个码。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用pattern分割str</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>在str上截取从pos位置开始长度为len的子字符串。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>把src中的matchingString全换成replaceString。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>callUDF(udfName: String, cols: Column*)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用UDF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>udf</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义UDF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口函数</t>
+  </si>
+  <si>
+    <t>排名，返回数据项在分组中的排名，排名相等会在名次中留下空位 1,2,2,4。</t>
+  </si>
+  <si>
+    <t>排名，返回数据项在分组中的排名，排名相等会在名次中不会留下空位 1,2,2,3。</t>
+  </si>
+  <si>
+    <t>行号，为每条记录返回一个数字 1,2,3,4</t>
+  </si>
+  <si>
+    <t>lag(e: Column, offset: Int, defaultValue: Any)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>lead(e: Column, offset: Int, defaultValue: Any)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>abs(e: Column)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>array(cols: Column*)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>map(cols: Column*)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>asc(columnName: String)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>asc</t>
+  </si>
+  <si>
+    <t>unboundedFollowing()</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>unboundedFollowing</t>
+  </si>
+  <si>
+    <t>ntile(n: Int)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>percent_rank()</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>row_number()</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dense_rank()</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank()</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentRow()</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentRow</t>
+  </si>
+  <si>
+    <t>cume_dist()</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>callUDF</t>
+  </si>
+  <si>
+    <t>translate(src: Column, matchingString: String, replaceString: String)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>substring_index(str: Column, delim: String, count: Int)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>substring(str: Column, pos: Int, len: Int)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>split(str: Column, pattern: String)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>soundex(e: Column)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse(str: Column)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat(str: Column, n: Int)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>regexp_replace(e: Column, pattern: String, replacement: String)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>regexp_replace(e: Column, pattern: Column, replacement: Column)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>regexp_extract(e: Column, exp: String, groupIdx: Int)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>trim(e: Column)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>trim(e: Column, trimString: String)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ltrim(e: Column, trimString: String)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ltrim(e: Column)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>lpad(str: Column, len: Int, pad: String)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>locate(substr: String, str: Column, pos: Int)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>locate(substr: String, str: Column)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>levenshtein(l: Column, r: Column)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>length(e: Column)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>instr(str: Column, substring: String)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper(e: Column)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower(e: Column)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>initcap(e: Column)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>format_string(format: String, arguments: Column*)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>format_number(x: Column, d: Int)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>encode(value: Column, charset: String)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>decode(value: Column, charset: String)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>concat_ws(sep: String, exprs: Column*)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitwiseNOT(e: Column)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitwiseNOT</t>
+  </si>
+  <si>
+    <t>concat(exprs: Column*)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>unbase64(e: Column)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>base64(e: Column)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ascii(e: Column)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc_nulls_last(columnName: String)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc_nulls_last</t>
+  </si>
+  <si>
+    <t>desc_nulls_first(columnName: String)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc_nulls_first</t>
+  </si>
+  <si>
+    <t>desc(columnName: String)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>asc_nulls_last(columnName: String)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>asc_nulls_last</t>
+  </si>
+  <si>
+    <t>asc_nulls_first(columnName: String)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>asc_nulls_first</t>
+  </si>
+  <si>
+    <t>struct(cols: Column*)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>spark_partition_id()</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>randn(seed: Long)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>randn()</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rand(seed: Long)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rand()</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>negate(e: Column)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>negate</t>
+  </si>
+  <si>
+    <t>not(e: Column)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>monotonically_increasing_id()</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>monotonically_increasing_id</t>
+  </si>
+  <si>
+    <t>typedLit</t>
+  </si>
+  <si>
+    <t>lit(literal: Any)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>lit</t>
+  </si>
+  <si>
+    <t>isnull(e: Column)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>isnan(e: Column)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_file_name()</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>least(exprs: Column*)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>greatest(exprs: Column*)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>expr(expr: String)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>expr</t>
+  </si>
+  <si>
+    <t>column(colName: String)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>col(colName: String)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>coalesce(e: Column*)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>broadcast</t>
+  </si>
+  <si>
+    <t>function_name</t>
+  </si>
+  <si>
+    <t>function_example</t>
+  </si>
+  <si>
+    <t>esg_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>function_desc</t>
+  </si>
+  <si>
+    <t>格式化‘#,###,###.##’形式的字符串</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算给定值的立方根。</t>
+  </si>
+  <si>
+    <t>返回被除数的正值。</t>
+  </si>
+  <si>
+    <t>返回与参数值最接近且等于一个数学整数的双精度值。</t>
+  </si>
+  <si>
     <t>将字面量(literal)创建一个Column，literal支持 scala types e.g.: List, Seq and Map.</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>返回单调递增唯一ID，但不同分区的ID不连续。ID为64位整型。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>nanvl(col1: Column, col2: Column)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>col1为NaN则返回col2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>负数，同df.select( -df(“amount”) )</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>取反，同df.filter( !df(“isActive”) )</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机数[0.0, 1.0]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机数[0.0, 1.0]，使用seed种子</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机数，从正态分布取</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>同上</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回partition ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>多列组合成新的struct column ？？</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>when(condition: Column, value: Any)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>当condition为true返回value，如people.select(when(people(“gender”) === “male”, 0).when(people(“gender”) === “female”, 1).otherwise(2)) 如果没有otherwise且condition全部没命中，则返回null.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序函数</t>
-  </si>
-  <si>
-    <t>字符串函数</t>
-  </si>
-  <si>
-    <t>正序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>正序，null排最前</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>正序，null排最后</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>逆序 e.g：df.sort(asc(“dept”), desc(“age”))</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UDF函数</t>
-  </si>
-  <si>
-    <t>计算第一个字符的ascii码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>base64转码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>base64解码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接多列字符串</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用sep作为分隔符连接多列字符串</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>解码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>转码，charset支持 ‘US-ASCII’, ‘ISO-8859-1’, ‘UTF-8’, ‘UTF-16BE’, ‘UTF-16LE’, ‘UTF-16’。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>将arguments按format格式化，格式为printf-style。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词首字母大写</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>转小写</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>转大写</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>substring在str中第一次出现的位置</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串长度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算两个字符串之间的编辑距离（Levenshtein distance）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>substring在str中第一次出现的位置，位置编号从1开始，0表示未找到。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>同上，但从pos位置后查找。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串左填充。用pad字符填充str的字符串至len长度。有对应的rpad，右填充。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>剪掉左边的空格、空白字符，对应有rtrim.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>剪掉左边的指定字符,对应有rtrim.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>剪掉左右两边的指定字符</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>剪掉左右两边的空格、空白字符</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>正则提取匹配的组</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>正则替换匹配的部分，这里参数为列。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>正则替换匹配的部分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>将str重复n次返回</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>将str反转</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算桑迪克斯代码（soundex code）PS:用于按英语发音来索引姓名,发音相同但拼写不同的单词，会映射成同一个码。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用pattern分割str</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>在str上截取从pos位置开始长度为len的子字符串。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>把src中的matchingString全换成replaceString。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>callUDF(udfName: String, cols: Column*)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用UDF</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>udf</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义UDF</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口函数</t>
-  </si>
-  <si>
-    <t>cumulative distribution of values within a window partition</t>
-  </si>
-  <si>
-    <t>returns the special frame boundary that represents the current row in the window partition.</t>
-  </si>
-  <si>
-    <t>排名，返回数据项在分组中的排名，排名相等会在名次中留下空位 1,2,2,4。</t>
-  </si>
-  <si>
-    <t>排名，返回数据项在分组中的排名，排名相等会在名次中不会留下空位 1,2,2,3。</t>
-  </si>
-  <si>
-    <t>行号，为每条记录返回一个数字 1,2,3,4</t>
-  </si>
-  <si>
-    <t>returns the relative rank (i.e. percentile) of rows within a window partition.</t>
-  </si>
-  <si>
-    <t>offset rows before the current row</t>
-  </si>
-  <si>
-    <t>returns the value that is offset rows after the current row</t>
-  </si>
-  <si>
-    <t>returns the ntile group id (from 1 to n inclusive) in an ordered window partition.</t>
-  </si>
-  <si>
-    <t>returns the special frame boundary that represents the last row in the window partition.</t>
-  </si>
-  <si>
-    <t>lag(e: Column, offset: Int, defaultValue: Any)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>lead(e: Column, offset: Int, defaultValue: Any)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>abs(e: Column)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>array(cols: Column*)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>map(cols: Column*)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>asc(columnName: String)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>asc</t>
-  </si>
-  <si>
-    <t>unboundedFollowing()</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>unboundedFollowing</t>
-  </si>
-  <si>
-    <t>ntile(n: Int)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>percent_rank()</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>row_number()</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dense_rank()</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank()</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentRow()</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentRow</t>
-  </si>
-  <si>
-    <t>cume_dist()</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>callUDF</t>
-  </si>
-  <si>
-    <t>translate(src: Column, matchingString: String, replaceString: String)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>substring_index(str: Column, delim: String, count: Int)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>substring(str: Column, pos: Int, len: Int)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>split(str: Column, pattern: String)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>soundex(e: Column)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>reverse(str: Column)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeat(str: Column, n: Int)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>regexp_replace(e: Column, pattern: String, replacement: String)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>regexp_replace(e: Column, pattern: Column, replacement: Column)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>regexp_extract(e: Column, exp: String, groupIdx: Int)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>trim(e: Column)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>trim(e: Column, trimString: String)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ltrim(e: Column, trimString: String)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ltrim(e: Column)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>lpad(str: Column, len: Int, pad: String)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>locate(substr: String, str: Column, pos: Int)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>locate(substr: String, str: Column)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>levenshtein(l: Column, r: Column)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>length(e: Column)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>instr(str: Column, substring: String)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>upper(e: Column)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>lower(e: Column)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>initcap(e: Column)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>format_string(format: String, arguments: Column*)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>format_number(x: Column, d: Int)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>encode(value: Column, charset: String)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>decode(value: Column, charset: String)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>concat_ws(sep: String, exprs: Column*)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bitwiseNOT(e: Column)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bitwiseNOT</t>
-  </si>
-  <si>
-    <t>concat(exprs: Column*)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>unbase64(e: Column)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>base64(e: Column)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ascii(e: Column)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc_nulls_last(columnName: String)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc_nulls_last</t>
-  </si>
-  <si>
-    <t>desc_nulls_first(columnName: String)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc_nulls_first</t>
-  </si>
-  <si>
-    <t>desc(columnName: String)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>asc_nulls_last(columnName: String)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>asc_nulls_last</t>
-  </si>
-  <si>
-    <t>asc_nulls_first(columnName: String)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>asc_nulls_first</t>
-  </si>
-  <si>
-    <t>struct(cols: Column*)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>spark_partition_id()</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>randn(seed: Long)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>randn()</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rand(seed: Long)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rand()</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>negate(e: Column)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>negate</t>
-  </si>
-  <si>
-    <t>not(e: Column)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>monotonically_increasing_id()</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>monotonically_increasing_id</t>
-  </si>
-  <si>
-    <t>typedLit</t>
-  </si>
-  <si>
-    <t>lit(literal: Any)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>lit</t>
-  </si>
-  <si>
-    <t>isnull(e: Column)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>isnan(e: Column)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>input_file_name()</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>least(exprs: Column*)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>greatest(exprs: Column*)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>expr(expr: String)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>expr</t>
-  </si>
-  <si>
-    <t>column(colName: String)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>column</t>
-  </si>
-  <si>
-    <t>col(colName: String)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>col</t>
-  </si>
-  <si>
-    <t>coalesce(e: Column*)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>broadcast</t>
-  </si>
-  <si>
-    <t>function_name</t>
-  </si>
-  <si>
-    <t>function_example</t>
-  </si>
-  <si>
-    <t>esg_id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>function_desc</t>
-  </si>
-  <si>
-    <t>格式化‘#,###,###.##’形式的字符串</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>窗口分区内值的累积分布</t>
+  </si>
+  <si>
+    <t>返回表示窗口分区中的当前行的特殊框架边界。</t>
+  </si>
+  <si>
+    <t>返回一个窗口分区内行的相对等级(即百分比)。</t>
+  </si>
+  <si>
+    <t>偏移当前行之前的行</t>
+  </si>
+  <si>
+    <t>返回当前行后偏移行的值</t>
+  </si>
+  <si>
+    <t>返回一个有序窗口分区中的ntile组id(从1到n)。</t>
+  </si>
+  <si>
+    <t>返回表示窗口分区中最后一行的特殊框架边界。</t>
   </si>
 </sst>
 </file>
@@ -12466,7 +12463,7 @@
         <v>373</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E216" s="8" t="s">
         <v>375</v>
@@ -13348,8 +13345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B171" workbookViewId="0">
-      <selection activeCell="G171" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B175" workbookViewId="0">
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13364,16 +13361,16 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" s="20" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>738</v>
@@ -14818,10 +14815,10 @@
         <v>532</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="F73" s="23" t="s">
         <v>887</v>
@@ -14839,7 +14836,7 @@
         <v>675</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E74" s="29" t="s">
         <v>338</v>
@@ -14857,13 +14854,13 @@
         <v>169</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="F75" s="23" t="s">
         <v>887</v>
@@ -14881,10 +14878,10 @@
         <v>676</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F76" s="23" t="s">
         <v>887</v>
@@ -14902,10 +14899,10 @@
         <v>699</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="F77" s="23" t="s">
         <v>887</v>
@@ -14923,10 +14920,10 @@
         <v>533</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="F78" s="23" t="s">
         <v>887</v>
@@ -14965,7 +14962,7 @@
         <v>521</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E80" s="23" t="s">
         <v>890</v>
@@ -14986,7 +14983,7 @@
         <v>661</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E81" s="23" t="s">
         <v>891</v>
@@ -15007,7 +15004,7 @@
         <v>523</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>892</v>
@@ -15025,10 +15022,10 @@
         <v>177</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>893</v>
@@ -15052,14 +15049,14 @@
         <v>88</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>895</v>
+        <v>1134</v>
       </c>
       <c r="F84" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G84" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('178','cbrt','cbrt(expr)','Computes the cube-root of the given value.','1','1','1','数学函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('178','cbrt','cbrt(expr)','计算给定值的立方根。','1','1','1','数学函数');</v>
       </c>
     </row>
     <row r="85" spans="2:7" ht="27" x14ac:dyDescent="0.15">
@@ -15067,13 +15064,13 @@
         <v>179</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F85" s="23" t="s">
         <v>887</v>
@@ -15091,10 +15088,10 @@
         <v>606</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F86" s="23" t="s">
         <v>887</v>
@@ -15112,10 +15109,10 @@
         <v>606</v>
       </c>
       <c r="D87" s="23" t="s">
+        <v>897</v>
+      </c>
+      <c r="E87" s="23" t="s">
         <v>898</v>
-      </c>
-      <c r="E87" s="23" t="s">
-        <v>899</v>
       </c>
       <c r="F87" s="23" t="s">
         <v>887</v>
@@ -15133,10 +15130,10 @@
         <v>607</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F88" s="23" t="s">
         <v>887</v>
@@ -15154,10 +15151,10 @@
         <v>609</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E89" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F89" s="23" t="s">
         <v>887</v>
@@ -15175,10 +15172,10 @@
         <v>608</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E90" s="23" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F90" s="23" t="s">
         <v>887</v>
@@ -15196,17 +15193,17 @@
         <v>640</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>903</v>
+        <v>1135</v>
       </c>
       <c r="F91" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G91" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('185','pmod','pmod(dividend: Column, divisor: Column)','Returns the positive value of dividend mod divisor.','1','1','1','数学函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('185','pmod','pmod(dividend: Column, divisor: Column)','返回被除数的正值。','1','1','1','数学函数');</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.15">
@@ -15217,10 +15214,10 @@
         <v>643</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F92" s="23" t="s">
         <v>887</v>
@@ -15238,10 +15235,10 @@
         <v>643</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F93" s="23" t="s">
         <v>887</v>
@@ -15259,10 +15256,10 @@
         <v>643</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F94" s="23" t="s">
         <v>887</v>
@@ -15280,10 +15277,10 @@
         <v>649</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F95" s="23" t="s">
         <v>887</v>
@@ -15293,7 +15290,7 @@
         <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('189','radians','radians(e: Column)','角度转弧度','1','1','1','数学函数');</v>
       </c>
     </row>
-    <row r="96" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B96" s="22">
         <v>190</v>
       </c>
@@ -15301,17 +15298,17 @@
         <v>658</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E96" s="23" t="s">
-        <v>909</v>
+        <v>1136</v>
       </c>
       <c r="F96" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G96" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('190','rint','rint(e: Column)','Returns the double value that is closest in value to the argument and is equal to a mathematical integer.','1','1','1','数学函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('190','rint','rint(e: Column)','返回与参数值最接近且等于一个数学整数的双精度值。','1','1','1','数学函数');</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="27" x14ac:dyDescent="0.15">
@@ -15319,13 +15316,13 @@
         <v>191</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="F97" s="23" t="s">
         <v>887</v>
@@ -15340,13 +15337,13 @@
         <v>192</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="F98" s="23" t="s">
         <v>887</v>
@@ -15361,13 +15358,13 @@
         <v>193</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="F99" s="23" t="s">
         <v>887</v>
@@ -15385,10 +15382,10 @@
         <v>674</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="F100" s="23" t="s">
         <v>887</v>
@@ -15406,10 +15403,10 @@
         <v>685</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F101" s="23" t="s">
         <v>887</v>
@@ -15427,10 +15424,10 @@
         <v>577</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="F102" s="23" t="s">
         <v>887</v>
@@ -15448,10 +15445,10 @@
         <v>711</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="F103" s="23" t="s">
         <v>887</v>
@@ -15480,13 +15477,13 @@
         <v>537</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="F105" s="23" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="G105" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15501,13 +15498,13 @@
         <v>576</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="F106" s="23" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="G106" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15522,13 +15519,13 @@
         <v>617</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="G107" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15540,16 +15537,16 @@
         <v>201</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E108" s="23" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="G108" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15564,13 +15561,13 @@
         <v>669</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="E109" s="23" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F109" s="23" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="G109" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15596,13 +15593,13 @@
         <v>515</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="E111" s="23" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="F111" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G111" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15617,13 +15614,13 @@
         <v>56</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="E112" s="23" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F112" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G112" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15638,13 +15635,13 @@
         <v>613</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="E113" s="23" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F113" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G113" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15656,16 +15653,16 @@
         <v>207</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>1098</v>
+        <v>1087</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>1097</v>
+        <v>1086</v>
       </c>
       <c r="E114" s="23" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F114" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G114" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15677,16 +15674,16 @@
         <v>208</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="E115" s="23" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F115" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G115" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15701,13 +15698,13 @@
         <v>525</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
       <c r="E116" s="23" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="F116" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G116" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15719,16 +15716,16 @@
         <v>210</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="E117" s="23" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F117" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G117" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15740,16 +15737,16 @@
         <v>211</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
       <c r="E118" s="23" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F118" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G118" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15761,16 +15758,16 @@
         <v>212</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>1132</v>
+        <v>1121</v>
       </c>
       <c r="E119" s="23" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="F119" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G119" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15785,13 +15782,13 @@
         <v>573</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>1131</v>
+        <v>1120</v>
       </c>
       <c r="E120" s="23" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="F120" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G120" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15806,13 +15803,13 @@
         <v>600</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>1130</v>
+        <v>1119</v>
       </c>
       <c r="E121" s="23" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="F121" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G121" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15827,13 +15824,13 @@
         <v>585</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>1129</v>
+        <v>1118</v>
       </c>
       <c r="E122" s="23" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="F122" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G122" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15848,13 +15845,13 @@
         <v>588</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
       <c r="E123" s="23" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F123" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G123" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15869,13 +15866,13 @@
         <v>590</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="E124" s="23" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F124" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G124" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15887,16 +15884,16 @@
         <v>218</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>1126</v>
+        <v>1115</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="E125" s="23" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F125" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G125" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15908,16 +15905,16 @@
         <v>219</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>1124</v>
+        <v>1113</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E126" s="23" t="s">
-        <v>985</v>
+        <v>1137</v>
       </c>
       <c r="F126" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G126" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15929,16 +15926,16 @@
         <v>220</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>1122</v>
+        <v>1111</v>
       </c>
       <c r="E127" s="23" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="F127" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G127" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15953,13 +15950,13 @@
         <v>625</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="E128" s="23" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="F128" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G128" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15971,16 +15968,16 @@
         <v>222</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>1120</v>
+        <v>1109</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="E129" s="23" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="F129" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G129" s="18" t="str">
         <f t="shared" si="1"/>
@@ -15995,13 +15992,13 @@
         <v>628</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>1121</v>
+        <v>1110</v>
       </c>
       <c r="E130" s="23" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="F130" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G130" s="18" t="str">
         <f t="shared" si="1"/>
@@ -16016,13 +16013,13 @@
         <v>650</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="E131" s="23" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="F131" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G131" s="18" t="str">
         <f t="shared" si="1"/>
@@ -16037,13 +16034,13 @@
         <v>650</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="E132" s="23" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="F132" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G132" s="18" t="str">
         <f t="shared" ref="G132:G187" si="2">"insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('"&amp;B132&amp;"','"&amp;C132&amp;"','"&amp;D132&amp;"','"&amp;E132&amp;"','1','1','1','"&amp;F132&amp;"');"</f>
@@ -16058,13 +16055,13 @@
         <v>651</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="E133" s="23" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="F133" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G133" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16079,13 +16076,13 @@
         <v>651</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>1115</v>
+        <v>1104</v>
       </c>
       <c r="E134" s="23" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="F134" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G134" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16100,13 +16097,13 @@
         <v>683</v>
       </c>
       <c r="D135" s="23" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
       <c r="E135" s="23" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="F135" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G135" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16121,13 +16118,13 @@
         <v>693</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>1113</v>
+        <v>1102</v>
       </c>
       <c r="E136" s="23" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="F136" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G136" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16142,13 +16139,13 @@
         <v>718</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="E137" s="23" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="F137" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G137" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16160,16 +16157,16 @@
         <v>232</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>1057</v>
+        <v>1046</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>1056</v>
+        <v>1045</v>
       </c>
       <c r="E138" s="23" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="F138" s="23" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="G138" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16181,16 +16178,16 @@
         <v>233</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>1112</v>
+        <v>1101</v>
       </c>
       <c r="D139" s="23" t="s">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="E139" s="23" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="F139" s="23" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="G139" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16202,16 +16199,16 @@
         <v>234</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="D140" s="23" t="s">
-        <v>1109</v>
+        <v>1098</v>
       </c>
       <c r="E140" s="23" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="F140" s="23" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="G140" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16223,16 +16220,16 @@
         <v>235</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>1108</v>
+        <v>1097</v>
       </c>
       <c r="D141" s="23" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
       <c r="E141" s="23" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="F141" s="23" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="G141" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16244,16 +16241,16 @@
         <v>236</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>1106</v>
+        <v>1095</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>1105</v>
+        <v>1094</v>
       </c>
       <c r="E142" s="23" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="F142" s="23" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="G142" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16265,16 +16262,16 @@
         <v>237</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
       <c r="D143" s="23" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="E143" s="23" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="F143" s="23" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="G143" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16289,13 +16286,13 @@
         <v>509</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
       <c r="E144" s="23" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="F144" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G144" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16310,13 +16307,13 @@
         <v>517</v>
       </c>
       <c r="D145" s="23" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="E145" s="23" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="F145" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G145" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16331,13 +16328,13 @@
         <v>710</v>
       </c>
       <c r="D146" s="23" t="s">
-        <v>1100</v>
+        <v>1089</v>
       </c>
       <c r="E146" s="23" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="F146" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G146" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16352,13 +16349,13 @@
         <v>528</v>
       </c>
       <c r="D147" s="23" t="s">
-        <v>1099</v>
+        <v>1088</v>
       </c>
       <c r="E147" s="23" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="F147" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G147" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16373,13 +16370,13 @@
         <v>529</v>
       </c>
       <c r="D148" s="23" t="s">
-        <v>1096</v>
+        <v>1085</v>
       </c>
       <c r="E148" s="23" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="F148" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G148" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16394,13 +16391,13 @@
         <v>552</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="E149" s="23" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F149" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G149" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16415,13 +16412,13 @@
         <v>558</v>
       </c>
       <c r="D150" s="23" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
       <c r="E150" s="23" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="F150" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G150" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16436,13 +16433,13 @@
         <v>567</v>
       </c>
       <c r="D151" s="23" t="s">
-        <v>1093</v>
+        <v>1082</v>
       </c>
       <c r="E151" s="23" t="s">
-        <v>1144</v>
+        <v>1133</v>
       </c>
       <c r="F151" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G151" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16457,13 +16454,13 @@
         <v>568</v>
       </c>
       <c r="D152" s="23" t="s">
-        <v>1092</v>
+        <v>1081</v>
       </c>
       <c r="E152" s="23" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="F152" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G152" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16478,13 +16475,13 @@
         <v>583</v>
       </c>
       <c r="D153" s="23" t="s">
-        <v>1091</v>
+        <v>1080</v>
       </c>
       <c r="E153" s="23" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="F153" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G153" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16499,13 +16496,13 @@
         <v>610</v>
       </c>
       <c r="D154" s="23" t="s">
-        <v>1090</v>
+        <v>1079</v>
       </c>
       <c r="E154" s="23" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="F154" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G154" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16520,13 +16517,13 @@
         <v>713</v>
       </c>
       <c r="D155" s="23" t="s">
-        <v>1089</v>
+        <v>1078</v>
       </c>
       <c r="E155" s="23" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="F155" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G155" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16541,13 +16538,13 @@
         <v>586</v>
       </c>
       <c r="D156" s="23" t="s">
-        <v>1088</v>
+        <v>1077</v>
       </c>
       <c r="E156" s="23" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="F156" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G156" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16562,13 +16559,13 @@
         <v>601</v>
       </c>
       <c r="D157" s="23" t="s">
-        <v>1087</v>
+        <v>1076</v>
       </c>
       <c r="E157" s="23" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="F157" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G157" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16583,13 +16580,13 @@
         <v>602</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="E158" s="23" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="F158" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G158" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16604,13 +16601,13 @@
         <v>605</v>
       </c>
       <c r="D159" s="23" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="E159" s="23" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="F159" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G159" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16625,13 +16622,13 @@
         <v>605</v>
       </c>
       <c r="D160" s="23" t="s">
-        <v>1084</v>
+        <v>1073</v>
       </c>
       <c r="E160" s="23" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="F160" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G160" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16646,13 +16643,13 @@
         <v>611</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>1083</v>
+        <v>1072</v>
       </c>
       <c r="E161" s="23" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="F161" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G161" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16667,13 +16664,13 @@
         <v>612</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="E162" s="23" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="F162" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G162" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16688,13 +16685,13 @@
         <v>612</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="E163" s="23" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="F163" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G163" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16709,13 +16706,13 @@
         <v>707</v>
       </c>
       <c r="D164" s="23" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="E164" s="23" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="F164" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G164" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16730,13 +16727,13 @@
         <v>707</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>1079</v>
+        <v>1068</v>
       </c>
       <c r="E165" s="23" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="F165" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G165" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16751,13 +16748,13 @@
         <v>654</v>
       </c>
       <c r="D166" s="23" t="s">
-        <v>1078</v>
+        <v>1067</v>
       </c>
       <c r="E166" s="23" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="F166" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G166" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16772,13 +16769,13 @@
         <v>655</v>
       </c>
       <c r="D167" s="23" t="s">
-        <v>1077</v>
+        <v>1066</v>
       </c>
       <c r="E167" s="23" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="F167" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G167" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16793,13 +16790,13 @@
         <v>655</v>
       </c>
       <c r="D168" s="23" t="s">
-        <v>1076</v>
+        <v>1065</v>
       </c>
       <c r="E168" s="23" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="F168" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G168" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16814,13 +16811,13 @@
         <v>656</v>
       </c>
       <c r="D169" s="23" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="E169" s="23" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="F169" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G169" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16835,13 +16832,13 @@
         <v>657</v>
       </c>
       <c r="D170" s="23" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
       <c r="E170" s="23" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="F170" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G170" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16856,13 +16853,13 @@
         <v>681</v>
       </c>
       <c r="D171" s="23" t="s">
-        <v>1073</v>
+        <v>1062</v>
       </c>
       <c r="E171" s="23" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="F171" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G171" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16877,13 +16874,13 @@
         <v>684</v>
       </c>
       <c r="D172" s="23" t="s">
-        <v>1072</v>
+        <v>1061</v>
       </c>
       <c r="E172" s="23" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F172" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G172" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16898,13 +16895,13 @@
         <v>695</v>
       </c>
       <c r="D173" s="23" t="s">
-        <v>1071</v>
+        <v>1060</v>
       </c>
       <c r="E173" s="23" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="F173" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G173" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16919,11 +16916,11 @@
         <v>696</v>
       </c>
       <c r="D174" s="23" t="s">
-        <v>1070</v>
+        <v>1059</v>
       </c>
       <c r="E174" s="23"/>
       <c r="F174" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G174" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16938,13 +16935,13 @@
         <v>706</v>
       </c>
       <c r="D175" s="23" t="s">
-        <v>1069</v>
+        <v>1058</v>
       </c>
       <c r="E175" s="23" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="F175" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G175" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16956,16 +16953,16 @@
         <v>272</v>
       </c>
       <c r="C176" s="23" t="s">
-        <v>1068</v>
+        <v>1057</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="E176" s="23" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="F176" s="23" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="G176" s="18" t="str">
         <f t="shared" si="2"/>
@@ -16977,23 +16974,23 @@
         <v>273</v>
       </c>
       <c r="C177" s="23" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="E177" s="23" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="F177" s="23" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="G177" s="18" t="str">
         <f t="shared" si="2"/>
         <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('273','udf','udf','定义UDF','1','1','1','UDF函数');</v>
       </c>
     </row>
-    <row r="178" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B178" s="22">
         <v>275</v>
       </c>
@@ -17001,38 +16998,38 @@
         <v>539</v>
       </c>
       <c r="D178" s="23" t="s">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="E178" s="23" t="s">
-        <v>1041</v>
+        <v>1138</v>
       </c>
       <c r="F178" s="23" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="G178" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('275','cume_dist','cume_dist()','cumulative distribution of values within a window partition','1','1','1','窗口函数');</v>
-      </c>
-    </row>
-    <row r="179" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('275','cume_dist','cume_dist()','窗口分区内值的累积分布','1','1','1','窗口函数');</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B179" s="22">
         <v>276</v>
       </c>
       <c r="C179" s="23" t="s">
-        <v>1066</v>
+        <v>1055</v>
       </c>
       <c r="D179" s="23" t="s">
-        <v>1065</v>
+        <v>1054</v>
       </c>
       <c r="E179" s="23" t="s">
-        <v>1042</v>
+        <v>1139</v>
       </c>
       <c r="F179" s="23" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="G179" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('276','currentRow','currentRow()','returns the special frame boundary that represents the current row in the window partition.','1','1','1','窗口函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('276','currentRow','currentRow()','返回表示窗口分区中的当前行的特殊框架边界。','1','1','1','窗口函数');</v>
       </c>
     </row>
     <row r="180" spans="2:7" ht="27" x14ac:dyDescent="0.15">
@@ -17043,13 +17040,13 @@
         <v>652</v>
       </c>
       <c r="D180" s="23" t="s">
-        <v>1064</v>
+        <v>1053</v>
       </c>
       <c r="E180" s="23" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="F180" s="23" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="G180" s="18" t="str">
         <f t="shared" si="2"/>
@@ -17064,13 +17061,13 @@
         <v>554</v>
       </c>
       <c r="D181" s="23" t="s">
-        <v>1063</v>
+        <v>1052</v>
       </c>
       <c r="E181" s="23" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="F181" s="23" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="G181" s="18" t="str">
         <f t="shared" si="2"/>
@@ -17085,20 +17082,20 @@
         <v>662</v>
       </c>
       <c r="D182" s="23" t="s">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="E182" s="23" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F182" s="23" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="G182" s="18" t="str">
         <f t="shared" si="2"/>
         <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('279','row_number','row_number()','行号，为每条记录返回一个数字 1,2,3,4','1','1','1','窗口函数');</v>
       </c>
     </row>
-    <row r="183" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B183" s="22">
         <v>280</v>
       </c>
@@ -17106,17 +17103,17 @@
         <v>636</v>
       </c>
       <c r="D183" s="23" t="s">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="E183" s="23" t="s">
-        <v>1046</v>
+        <v>1140</v>
       </c>
       <c r="F183" s="23" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="G183" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('280','percent_rank','percent_rank()','returns the relative rank (i.e. percentile) of rows within a window partition.','1','1','1','窗口函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('280','percent_rank','percent_rank()','返回一个窗口分区内行的相对等级(即百分比)。','1','1','1','窗口函数');</v>
       </c>
     </row>
     <row r="184" spans="2:7" ht="27" x14ac:dyDescent="0.15">
@@ -17127,17 +17124,17 @@
         <v>594</v>
       </c>
       <c r="D184" s="23" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="E184" s="23" t="s">
-        <v>1047</v>
+        <v>1141</v>
       </c>
       <c r="F184" s="23" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="G184" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('281','lag','lag(e: Column, offset: Int, defaultValue: Any)','offset rows before the current row','1','1','1','窗口函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('281','lag','lag(e: Column, offset: Int, defaultValue: Any)','偏移当前行之前的行','1','1','1','窗口函数');</v>
       </c>
     </row>
     <row r="185" spans="2:7" ht="27" x14ac:dyDescent="0.15">
@@ -17148,20 +17145,20 @@
         <v>599</v>
       </c>
       <c r="D185" s="23" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="E185" s="23" t="s">
-        <v>1048</v>
+        <v>1142</v>
       </c>
       <c r="F185" s="23" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="G185" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('282','lead','lead(e: Column, offset: Int, defaultValue: Any)','returns the value that is offset rows after the current row','1','1','1','窗口函数');</v>
-      </c>
-    </row>
-    <row r="186" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('282','lead','lead(e: Column, offset: Int, defaultValue: Any)','返回当前行后偏移行的值','1','1','1','窗口函数');</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B186" s="22">
         <v>283</v>
       </c>
@@ -17169,38 +17166,38 @@
         <v>630</v>
       </c>
       <c r="D186" s="23" t="s">
-        <v>1060</v>
+        <v>1049</v>
       </c>
       <c r="E186" s="23" t="s">
-        <v>1049</v>
+        <v>1143</v>
       </c>
       <c r="F186" s="23" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="G186" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('283','ntile','ntile(n: Int)','returns the ntile group id (from 1 to n inclusive) in an ordered window partition.','1','1','1','窗口函数');</v>
-      </c>
-    </row>
-    <row r="187" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('283','ntile','ntile(n: Int)','返回一个有序窗口分区中的ntile组id(从1到n)。','1','1','1','窗口函数');</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B187" s="22">
         <v>284</v>
       </c>
       <c r="C187" s="23" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="D187" s="23" t="s">
-        <v>1058</v>
+        <v>1047</v>
       </c>
       <c r="E187" s="23" t="s">
-        <v>1050</v>
+        <v>1144</v>
       </c>
       <c r="F187" s="23" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="G187" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('284','unboundedFollowing','unboundedFollowing()','returns the special frame boundary that represents the last row in the window partition.','1','1','1','窗口函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('284','unboundedFollowing','unboundedFollowing()','返回表示窗口分区中最后一行的特殊框架边界。','1','1','1','窗口函数');</v>
       </c>
     </row>
   </sheetData>

--- a/hrds-commons/src/main/java/hrds/commons/script/spark-2.3函数.xlsx
+++ b/hrds-commons/src/main/java/hrds/commons/script/spark-2.3函数.xlsx
@@ -13343,10 +13343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G187"/>
+  <dimension ref="B2:G182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B175" workbookViewId="0">
-      <selection activeCell="E187" sqref="E187"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13415,7 +13415,7 @@
         <v>766</v>
       </c>
       <c r="G4" s="18" t="str">
-        <f t="shared" ref="G4:G67" si="0">"insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','1','1','1','"&amp;F4&amp;"');"</f>
+        <f t="shared" ref="G4:G65" si="0">"insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','1','1','1','"&amp;F4&amp;"');"</f>
         <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('101','avg','avg(expr)','返回expr列的平均值','1','1','1','聚合函数');</v>
       </c>
     </row>
@@ -13920,3282 +13920,3227 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="B29" s="22">
+        <v>126</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>816</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>800</v>
+      </c>
       <c r="G29" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('','','','','1','1','1','');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('126','array_contains',' array_contains(Array&lt;T&gt;, value)','如该数组Array&lt;T&gt;包含value返回true，否则返回false','1','1','1','集合函数');</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="22">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>816</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>452</v>
+        <v>785</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>176</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>800</v>
       </c>
       <c r="G30" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('126','array_contains',' array_contains(Array&lt;T&gt;, value)','如该数组Array&lt;T&gt;包含value返回true，否则返回false','1','1','1','集合函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('127','explode','explode(expr) ','将Array格式的expr分割成多行或者Map格式的expr分割成多行和多列','1','1','1','集合函数');</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" s="22">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>785</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>176</v>
+        <v>786</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23" t="s">
+        <v>787</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>800</v>
       </c>
       <c r="G31" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('127','explode','explode(expr) ','将Array格式的expr分割成多行或者Map格式的expr分割成多行和多列','1','1','1','集合函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('128','explode_outer','','同explode，但当array或map为空或null时，会展开为null。','1','1','1','集合函数');</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B32" s="22">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>786</v>
-      </c>
-      <c r="D32" s="23"/>
+        <v>788</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>297</v>
+      </c>
       <c r="E32" s="23" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>800</v>
       </c>
       <c r="G32" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('128','explode_outer','','同explode，但当array或map为空或null时，会展开为null。','1','1','1','集合函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('129','posexplode','posexplode(ARRAY)','同explode，带位置索引。','1','1','1','集合函数');</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="22">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>788</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>297</v>
-      </c>
+        <v>815</v>
+      </c>
+      <c r="D33" s="23"/>
       <c r="E33" s="23" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>800</v>
       </c>
       <c r="G33" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('129','posexplode','posexplode(ARRAY)','同explode，带位置索引。','1','1','1','集合函数');</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('130','posexplode_outer','','同explode_outer，带位置索引。','1','1','1','集合函数');</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B34" s="22">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="23" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>800</v>
       </c>
       <c r="G34" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('130','posexplode_outer','','同explode_outer，带位置索引。','1','1','1','集合函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('131','from_json','','解析JSON字符串为StructType or ArrayType，有多种参数形式，详见文档。','1','1','1','集合函数');</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B35" s="22">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>814</v>
-      </c>
-      <c r="D35" s="23"/>
+        <v>812</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>813</v>
+      </c>
       <c r="E35" s="23" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>800</v>
       </c>
       <c r="G35" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('131','from_json','','解析JSON字符串为StructType or ArrayType，有多种参数形式，详见文档。','1','1','1','集合函数');</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('132','to_json','to_json()','转为json字符串，支持StructType, ArrayType of StructTypes, a MapType or ArrayType of MapTypes。','1','1','1','集合函数');</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="22">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>812</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>813</v>
+        <v>817</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>204</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>800</v>
       </c>
       <c r="G36" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('132','to_json','to_json()','转为json字符串，支持StructType, ArrayType of StructTypes, a MapType or ArrayType of MapTypes。','1','1','1','集合函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('133','get_json_object','get_json_object(json_txt, path)','获取指定json路径的json对象字符串。','1','1','1','集合函数');</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="22">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>817</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>204</v>
+        <v>810</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>243</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>800</v>
       </c>
       <c r="G37" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('133','get_json_object','get_json_object(json_txt, path)','获取指定json路径的json对象字符串。','1','1','1','集合函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('134','json_tuple','json_tuple(jsonStr, p1, p2, ..., pn)','获取json中指定字段值。','1','1','1','集合函数');</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="22">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>810</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>243</v>
+        <v>795</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>809</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F38" s="23" t="s">
         <v>800</v>
       </c>
       <c r="G38" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('134','json_tuple','json_tuple(jsonStr, p1, p2, ..., pn)','获取json中指定字段值。','1','1','1','集合函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('135','map_keys','map_keys(Map&lt;K.V&gt;)','返回map的键组成的array','1','1','1','集合函数');</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="22">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>800</v>
       </c>
       <c r="G39" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('135','map_keys','map_keys(Map&lt;K.V&gt;)','返回map的键组成的array','1','1','1','集合函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('136','map_values','map_values(Map&lt;K.V&gt;)','返回map的值组成的array','1','1','1','集合函数');</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B40" s="22">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>800</v>
       </c>
       <c r="G40" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('136','map_values','map_values(Map&lt;K.V&gt;)','返回map的值组成的array','1','1','1','集合函数');</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('137','size','size(Array&lt;T&gt;)','array 或 map 的长度','1','1','1','集合函数');</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B41" s="22">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>800</v>
       </c>
       <c r="G41" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('137','size','size(Array&lt;T&gt;)','array 或 map 的长度','1','1','1','集合函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('138','sort_array','sort_array(e: Column, asc: Boolean)','将array中元素排序（自然排序），默认asc。','1','1','1','集合函数');</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B42" s="22">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>801</v>
+        <v>848</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>799</v>
+        <v>820</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="G42" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('138','sort_array','sort_array(e: Column, asc: Boolean)','将array中元素排序（自然排序），默认asc。','1','1','1','集合函数');</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('139','add_months','add_months(startDate: Column, numMonths: Int)','指定日期添加n月','1','1','1','时间函数');</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B43" s="22">
+        <v>140</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>850</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>849</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>821</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>818</v>
+      </c>
       <c r="G43" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('','','','','1','1','1','');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('140','date_add','date_add(start: Column, days: Int)','指定日期之后n天: select date_add(‘2018-01-01’,3)','1','1','1','时间函数');</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B44" s="22">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>819</v>
+        <v>851</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G44" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('139','add_months','add_months(startDate: Column, numMonths: Int)','指定日期添加n月','1','1','1','时间函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('141','date_sub','date_sub(start: Column, days: Int)','指定日期之前n天','1','1','1','时间函数');</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B45" s="22">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G45" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('140','date_add','date_add(start: Column, days: Int)','指定日期之后n天: select date_add(‘2018-01-01’,3)','1','1','1','时间函数');</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('142','datediff','datediff(end: Column, start: Column)','两日期间隔天数','1','1','1','时间函数');</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" s="22">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>852</v>
+        <v>541</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G46" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('141','date_sub','date_sub(start: Column, days: Int)','指定日期之前n天','1','1','1','时间函数');</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('143','current_date','current_date()','当前日期','1','1','1','时间函数');</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="22">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G47" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('142','datediff','datediff(end: Column, start: Column)','两日期间隔天数','1','1','1','时间函数');</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('144','current_timestamp','current_timestamp()','当前时间戳，TimestampType类型','1','1','1','时间函数');</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B48" s="22">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>541</v>
+        <v>859</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G48" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('143','current_date','current_date()','当前日期','1','1','1','时间函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('145','date_format','date_format(dateExpr: Column, format: String)','日期格式化','1','1','1','时间函数');</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B49" s="22">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>857</v>
+        <v>549</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G49" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('144','current_timestamp','current_timestamp()','当前时间戳，TimestampType类型','1','1','1','时间函数');</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('146','dayofmonth','dayofmonth(e: Column)','日期在一月中的天数，支持 date/timestamp/string','1','1','1','时间函数');</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B50" s="22">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G50" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('145','date_format','date_format(dateExpr: Column, format: String)','日期格式化','1','1','1','时间函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('147','dayofyear','dayofyear(e: Column)','日期在一年中的天数， 支持 date/timestamp/string','1','1','1','时间函数');</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B51" s="22">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>549</v>
+        <v>717</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G51" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('146','dayofmonth','dayofmonth(e: Column)','日期在一月中的天数，支持 date/timestamp/string','1','1','1','时间函数');</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('148','weekofyear','weekofyear(e: Column)','日期在一年中的周数， 支持 date/timestamp/string','1','1','1','时间函数');</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B52" s="22">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>863</v>
+        <v>569</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G52" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('147','dayofyear','dayofyear(e: Column)','日期在一年中的天数， 支持 date/timestamp/string','1','1','1','时间函数');</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('149','from_unixtime','from_unixtime(ut: Column, f: String)','时间戳转字符串格式','1','1','1','时间函数');</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B53" s="22">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>717</v>
+        <v>570</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G53" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('148','weekofyear','weekofyear(e: Column)','日期在一年中的周数， 支持 date/timestamp/string','1','1','1','时间函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('150','from_utc_timestamp','from_utc_timestamp(ts: Column, tz: String)','时间戳转指定时区时间戳','1','1','1','时间函数');</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B54" s="22">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>569</v>
+        <v>705</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G54" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('149','from_unixtime','from_unixtime(ut: Column, f: String)','时间戳转字符串格式','1','1','1','时间函数');</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('151','to_utc_timestamp','to_utc_timestamp(ts: Column, tz: String)','指定时区时间戳转UTF时间戳','1','1','1','时间函数');</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B55" s="22">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G55" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('150','from_utc_timestamp','from_utc_timestamp(ts: Column, tz: String)','时间戳转指定时区时间戳','1','1','1','时间函数');</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('152','hour','hour(e: Column)','提取小时值','1','1','1','时间函数');</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B56" s="22">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>705</v>
+        <v>620</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>866</v>
+        <v>877</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G56" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('151','to_utc_timestamp','to_utc_timestamp(ts: Column, tz: String)','指定时区时间戳转UTF时间戳','1','1','1','时间函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('153','minute','minute(e: Column)','提取分钟值','1','1','1','时间函数');</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B57" s="22">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>578</v>
+        <v>622</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G57" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('152','hour','hour(e: Column)','提取小时值','1','1','1','时间函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('154','month','month(e: Column)','提取月份值','1','1','1','时间函数');</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B58" s="22">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>620</v>
+        <v>875</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G58" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('153','minute','minute(e: Column)','提取分钟值','1','1','1','时间函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('155','quarter','quarter(e: Column)','提取季度','1','1','1','时间函数');</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="22">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>622</v>
+        <v>873</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G59" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('154','month','month(e: Column)','提取月份值','1','1','1','时间函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('156','second','second(e: Column)','提取秒','1','1','1','时间函数');</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="22">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>875</v>
+        <v>728</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G60" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('155','quarter','quarter(e: Column)','提取季度','1','1','1','时间函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('157','year','year(e: Column)','提取年','1','1','1','时间函数');</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B61" s="22">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>873</v>
+        <v>596</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G61" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('156','second','second(e: Column)','提取秒','1','1','1','时间函数');</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('158','last_day','last_day(e: Column)','指定日期的月末日期','1','1','1','时间函数');</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B62" s="22">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>728</v>
+        <v>879</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F62" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G62" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('157','year','year(e: Column)','提取年','1','1','1','时间函数');</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('159','months_between','months_between(date1: Column, date2: Column)','计算两日期差几个月','1','1','1','时间函数');</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B63" s="22">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="F63" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G63" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('158','last_day','last_day(e: Column)','指定日期的月末日期','1','1','1','时间函数');</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('160','next_day','next_day(date: Column, dayOfWeek: String)','计算指定日期之后的下一个周一、二…，dayOfWeek区分大小写，只接受 “Mon”, “Tue”, “Wed”, “Thu”, “Fri”, “Sat”, “Sun”。','1','1','1','时间函数');</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B64" s="22">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>879</v>
+        <v>703</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F64" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G64" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('159','months_between','months_between(date1: Column, date2: Column)','计算两日期差几个月','1','1','1','时间函数');</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('161','to_date','to_date(e: Column)','字段类型转为DateType','1','1','1','时间函数');</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B65" s="22">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="F65" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G65" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('160','next_day','next_day(date: Column, dayOfWeek: String)','计算指定日期之后的下一个周一、二…，dayOfWeek区分大小写，只接受 “Mon”, “Tue”, “Wed”, “Thu”, “Fri”, “Sat”, “Sun”。','1','1','1','时间函数');</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('162','trunc','trunc(date: Column, format: String)','日期截断','1','1','1','时间函数');</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B66" s="22">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>703</v>
+        <v>870</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="F66" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G66" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('161','to_date','to_date(e: Column)','字段类型转为DateType','1','1','1','时间函数');</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <f t="shared" ref="G66:G126" si="1">"insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('"&amp;B66&amp;"','"&amp;C66&amp;"','"&amp;D66&amp;"','"&amp;E66&amp;"','1','1','1','"&amp;F66&amp;"');"</f>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('163','unix_timestamp','unix_timestamp(s: Column, p: String)','指定格式的时间字符串转时间戳','1','1','1','时间函数');</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B67" s="22">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="F67" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G67" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('162','trunc','trunc(date: Column, format: String)','日期截断','1','1','1','时间函数');</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('164','unix_timestamp','unix_timestamp(s: Column)','同上，默认格式为 yyyy-MM-dd HH:mm:ss','1','1','1','时间函数');</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B68" s="22">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C68" s="23" t="s">
         <v>870</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F68" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G68" s="18" t="str">
-        <f t="shared" ref="G68:G131" si="1">"insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('"&amp;B68&amp;"','"&amp;C68&amp;"','"&amp;D68&amp;"','"&amp;E68&amp;"','1','1','1','"&amp;F68&amp;"');"</f>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('163','unix_timestamp','unix_timestamp(s: Column, p: String)','指定格式的时间字符串转时间戳','1','1','1','时间函数');</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('165','unix_timestamp','unix_timestamp()','当前时间戳(秒),底层实现为unix_timestamp(current_timestamp(), yyyy-MM-dd HH:mm:ss)','1','1','1','时间函数');</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="54" x14ac:dyDescent="0.15">
       <c r="B69" s="22">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>712</v>
+        <v>868</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>884</v>
+        <v>867</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="F69" s="23" t="s">
         <v>818</v>
       </c>
       <c r="G69" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('164','unix_timestamp','unix_timestamp(s: Column)','同上，默认格式为 yyyy-MM-dd HH:mm:ss','1','1','1','时间函数');</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('166','window','window(timeColumn: Column, windowDuration: String, slideDuration: String, startTime: String)','时间窗口函数，将指定时间(TimestampType)划分到窗口','1','1','1','时间函数');</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B70" s="22">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>870</v>
+        <v>532</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>869</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>846</v>
+        <v>919</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>914</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>818</v>
+        <v>887</v>
       </c>
       <c r="G70" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('165','unix_timestamp','unix_timestamp()','当前时间戳(秒),底层实现为unix_timestamp(current_timestamp(), yyyy-MM-dd HH:mm:ss)','1','1','1','时间函数');</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" ht="54" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('167','cos','cos(a)','返回a的余弦值','1','1','1','数学函数');</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="22">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>868</v>
+        <v>675</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>867</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>847</v>
+        <v>915</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>338</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>818</v>
+        <v>887</v>
       </c>
       <c r="G71" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('166','window','window(timeColumn: Column, windowDuration: String, slideDuration: String, startTime: String)','时间窗口函数，将指定时间(TimestampType)划分到窗口','1','1','1','时间函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('168','sin','sin(a)','求a的正弦值','1','1','1','数学函数');</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
+      <c r="B72" s="22">
+        <v>169</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>917</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>916</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>918</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>887</v>
+      </c>
       <c r="G72" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('','','','','1','1','1','');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('169','tan','tan(a)','返回a的正切值','1','1','1','数学函数');</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B73" s="22">
-        <v>167</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>919</v>
+        <v>170</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>920</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="F73" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G73" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('167','cos','cos(a)','返回a的余弦值','1','1','1','数学函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('170','sinh','sinh(a)','返回a的双曲余弦值','1','1','1','数学函数');</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B74" s="22">
-        <v>168</v>
-      </c>
-      <c r="C74" s="23" t="s">
-        <v>675</v>
-      </c>
-      <c r="D74" s="23" t="s">
-        <v>915</v>
+        <v>171</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>921</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>338</v>
+        <v>925</v>
       </c>
       <c r="F74" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G74" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('168','sin','sin(a)','求a的正弦值','1','1','1','数学函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('171','tanh','tanh(a)','求a的双曲正弦值','1','1','1','数学函数');</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B75" s="22">
-        <v>169</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>917</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>916</v>
+        <v>172</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>922</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
       <c r="F75" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G75" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('169','tan','tan(a)','返回a的正切值','1','1','1','数学函数');</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('172','cosh','cosh(a)','返回a的双曲正切值','1','1','1','数学函数');</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B76" s="22">
-        <v>170</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>676</v>
-      </c>
-      <c r="D76" s="24" t="s">
-        <v>920</v>
-      </c>
-      <c r="E76" s="28" t="s">
-        <v>924</v>
+        <v>173</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>888</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>889</v>
       </c>
       <c r="F76" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G76" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('170','sinh','sinh(a)','返回a的双曲余弦值','1','1','1','数学函数');</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('173','bin','bin(expr)','将long类型转为对应二进制数值的字符串For example, bin(“12”) returns “1100”.','1','1','1','数学函数');</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B77" s="22">
-        <v>171</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>699</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>921</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>925</v>
+        <v>174</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>927</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>890</v>
       </c>
       <c r="F77" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G77" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('171','tanh','tanh(a)','求a的双曲正弦值','1','1','1','数学函数');</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('174','bround','bround(expr, d)','舍入，使用Decimal的HALF_EVEN模式，v&gt;0.5向上舍入，v&lt; 0.5向下舍入，v0.5向最近的偶数舍入。','1','1','1','数学函数');</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B78" s="22">
-        <v>172</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>533</v>
-      </c>
-      <c r="D78" s="24" t="s">
-        <v>922</v>
-      </c>
-      <c r="E78" s="28" t="s">
-        <v>926</v>
+        <v>175</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>661</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>928</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>891</v>
       </c>
       <c r="F78" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G78" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('172','cosh','cosh(a)','返回a的双曲正切值','1','1','1','数学函数');</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('175','round','round(e: Column, scale: Int)','HALF_UP模式舍入到scale为小数点。v&gt;=0.5向上舍入，v&lt; 0.5向下舍入,即四舍五入。','1','1','1','数学函数');</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B79" s="22">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>888</v>
-      </c>
-      <c r="D79" s="25" t="s">
-        <v>82</v>
+        <v>523</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>929</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="F79" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G79" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('173','bin','bin(expr)','将long类型转为对应二进制数值的字符串For example, bin(“12”) returns “1100”.','1','1','1','数学函数');</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('176','ceil','ceil(expr)','向上舍入','1','1','1','数学函数');</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B80" s="22">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>521</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>927</v>
+        <v>930</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>930</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="F80" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G80" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('174','bround','bround(expr, d)','舍入，使用Decimal的HALF_EVEN模式，v&gt;0.5向上舍入，v&lt; 0.5向下舍入，v0.5向最近的偶数舍入。','1','1','1','数学函数');</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('177','floor','floor','向下舍入','1','1','1','数学函数');</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B81" s="22">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>661</v>
-      </c>
-      <c r="D81" s="23" t="s">
-        <v>928</v>
+        <v>894</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>88</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>891</v>
+        <v>1134</v>
       </c>
       <c r="F81" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G81" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('175','round','round(e: Column, scale: Int)','HALF_UP模式舍入到scale为小数点。v&gt;=0.5向上舍入，v&lt; 0.5向下舍入,即四舍五入。','1','1','1','数学函数');</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('178','cbrt','cbrt(expr)','计算给定值的立方根。','1','1','1','数学函数');</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B82" s="22">
-        <v>176</v>
-      </c>
-      <c r="C82" s="23" t="s">
-        <v>523</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>929</v>
+        <v>179</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>932</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>931</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="F82" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G82" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('176','ceil','ceil(expr)','向上舍入','1','1','1','数学函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('179','conv','conv(num:Column, fromBase: Int, toBase: Int)','转换数值（字符串）的进制','1','1','1','数学函数');</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B83" s="22">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>930</v>
+        <v>606</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="F83" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G83" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('177','floor','floor','向下舍入','1','1','1','数学函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('180','log','log(base: Double, a: Column)','logbase(a)log_{base}(a)logbase​(a)','1','1','1','数学函数');</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B84" s="22">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>894</v>
-      </c>
-      <c r="D84" s="30" t="s">
-        <v>88</v>
+        <v>606</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>897</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>1134</v>
+        <v>898</v>
       </c>
       <c r="F84" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G84" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('178','cbrt','cbrt(expr)','计算给定值的立方根。','1','1','1','数学函数');</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('181','log','log(a: Column)','loge(a)log_e(a)loge​(a)','1','1','1','数学函数');</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B85" s="22">
-        <v>179</v>
-      </c>
-      <c r="C85" s="27" t="s">
-        <v>932</v>
+        <v>182</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>607</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="F85" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G85" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('179','conv','conv(num:Column, fromBase: Int, toBase: Int)','转换数值（字符串）的进制','1','1','1','数学函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('182','log10','log10(a: Column)','log10(a)log_{10}(a)log10​(a)','1','1','1','数学函数');</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B86" s="22">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="F86" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G86" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('180','log','log(base: Double, a: Column)','logbase(a)log_{base}(a)logbase​(a)','1','1','1','数学函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('183','log2','log2(a: Column)','log2(a)log_{2}(a)log2​(a)','1','1','1','数学函数');</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B87" s="22">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>897</v>
+        <v>937</v>
       </c>
       <c r="E87" s="23" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="F87" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G87" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('181','log','log(a: Column)','loge(a)log_e(a)loge​(a)','1','1','1','数学函数');</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('184','log1p','log1p(a: Column)','loge(a+1)log_{e}(a+1)loge​(a+1)','1','1','1','数学函数');</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B88" s="22">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>899</v>
+        <v>1135</v>
       </c>
       <c r="F88" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G88" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('182','log10','log10(a: Column)','log10(a)log_{10}(a)log10​(a)','1','1','1','数学函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('185','pmod','pmod(dividend: Column, divisor: Column)','返回被除数的正值。','1','1','1','数学函数');</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B89" s="22">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>609</v>
+        <v>643</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="E89" s="23" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="F89" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G89" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('183','log2','log2(a: Column)','log2(a)log_{2}(a)log2​(a)','1','1','1','数学函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('186','pow','pow(l: Double, r: Column)','rlr^lrl 注意r是列','1','1','1','数学函数');</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B90" s="22">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>608</v>
+        <v>643</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="E90" s="23" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="F90" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G90" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('184','log1p','log1p(a: Column)','loge(a+1)log_{e}(a+1)loge​(a+1)','1','1','1','数学函数');</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('187','pow','pow(l: Column, r: Double)','rlr^lrl 注意l是列','1','1','1','数学函数');</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B91" s="22">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>936</v>
+        <v>904</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>1135</v>
+        <v>905</v>
       </c>
       <c r="F91" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G91" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('185','pmod','pmod(dividend: Column, divisor: Column)','返回被除数的正值。','1','1','1','数学函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('188','pow','pow(l: Column, r: Column)','rlr^lrl 注意r,l都是列','1','1','1','数学函数');</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B92" s="22">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="F92" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G92" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('186','pow','pow(l: Double, r: Column)','rlr^lrl 注意r是列','1','1','1','数学函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('189','radians','radians(e: Column)','角度转弧度','1','1','1','数学函数');</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B93" s="22">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>903</v>
+        <v>1136</v>
       </c>
       <c r="F93" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G93" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('187','pow','pow(l: Column, r: Double)','rlr^lrl 注意l是列','1','1','1','数学函数');</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('190','rint','rint(e: Column)','返回与参数值最接近且等于一个数学整数的双精度值。','1','1','1','数学函数');</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B94" s="22">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>643</v>
+        <v>943</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>904</v>
+        <v>942</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F94" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G94" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('188','pow','pow(l: Column, r: Column)','rlr^lrl 注意r,l都是列','1','1','1','数学函数');</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('191','shiftLeft','shiftLeft(e: Column, numBits: Int)','向左位移','1','1','1','数学函数');</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B95" s="22">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>649</v>
+        <v>945</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="F95" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G95" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('189','radians','radians(e: Column)','角度转弧度','1','1','1','数学函数');</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('192','shiftRight','shiftRight(e: Column, numBits: Int)','向右位移','1','1','1','数学函数');</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B96" s="22">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>658</v>
+        <v>947</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="E96" s="23" t="s">
-        <v>1136</v>
+        <v>909</v>
       </c>
       <c r="F96" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G96" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('190','rint','rint(e: Column)','返回与参数值最接近且等于一个数学整数的双精度值。','1','1','1','数学函数');</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('193','shiftRightUnsigned','shiftRightUnsigned(e: Column, numBits: Int)','向右位移（无符号位）','1','1','1','数学函数');</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B97" s="22">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>943</v>
+        <v>674</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="F97" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G97" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('191','shiftLeft','shiftLeft(e: Column, numBits: Int)','向左位移','1','1','1','数学函数');</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('194','signum','signum(e: Column)','返回数值正负符号','1','1','1','数学函数');</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B98" s="22">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>945</v>
+        <v>685</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="F98" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G98" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('192','shiftRight','shiftRight(e: Column, numBits: Int)','向右位移','1','1','1','数学函数');</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('195','sqrt','sqrt(e: Column)','平方根','1','1','1','数学函数');</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B99" s="22">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>947</v>
+        <v>577</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="F99" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G99" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('193','shiftRightUnsigned','shiftRightUnsigned(e: Column, numBits: Int)','向右位移（无符号位）','1','1','1','数学函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('196','hex','hex(column: Column)','转十六进制','1','1','1','数学函数');</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B100" s="22">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>674</v>
+        <v>711</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="F100" s="23" t="s">
         <v>887</v>
       </c>
       <c r="G100" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('194','signum','signum(e: Column)','返回数值正负符号','1','1','1','数学函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('197','unhex','unhex(column: Column)','逆转十六进制','1','1','1','数学函数');</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B101" s="22">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>685</v>
+        <v>537</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>949</v>
+        <v>958</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>911</v>
+        <v>953</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>887</v>
+        <v>952</v>
       </c>
       <c r="G101" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('195','sqrt','sqrt(e: Column)','平方根','1','1','1','数学函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('198','crc32','crc32(e: Column)','计算CRC32,返回bigint','1','1','1','混杂misc函数');</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B102" s="22">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>912</v>
+        <v>954</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>887</v>
+        <v>952</v>
       </c>
       <c r="G102" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('196','hex','hex(column: Column)','转十六进制','1','1','1','数学函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('199','hash','hash(cols: Column*)','计算 hash code，返回int','1','1','1','混杂misc函数');</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B103" s="22">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>711</v>
+        <v>617</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>913</v>
+        <v>955</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>887</v>
+        <v>952</v>
       </c>
       <c r="G103" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('197','unhex','unhex(column: Column)','逆转十六进制','1','1','1','数学函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('200','md5','md5(e: Column)','计算MD5摘要，返回32位，16进制字符串','1','1','1','混杂misc函数');</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B104" s="22"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="23"/>
+      <c r="B104" s="22">
+        <v>201</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>963</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>961</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>956</v>
+      </c>
+      <c r="F104" s="23" t="s">
+        <v>952</v>
+      </c>
       <c r="G104" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('','','','','1','1','1','');</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('201','sha1','sha1(e: Column)','计算SHA-1摘要，返回40位，16进制字符串','1','1','1','混杂misc函数');</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B105" s="22">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>537</v>
+        <v>669</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="F105" s="23" t="s">
         <v>952</v>
       </c>
       <c r="G105" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('198','crc32','crc32(e: Column)','计算CRC32,返回bigint','1','1','1','混杂misc函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('202','sha2','sha2(e: Column, numBits: Int)','计算SHA-1摘要，返回numBits位，16进制字符串。numBits支持224, 256, 384, or 512.','1','1','1','混杂misc函数');</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B106" s="22">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>576</v>
+        <v>515</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>960</v>
+        <v>1042</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>954</v>
+        <v>965</v>
       </c>
       <c r="F106" s="23" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="G106" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('199','hash','hash(cols: Column*)','计算 hash code，返回int','1','1','1','混杂misc函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('204','abs','abs(e: Column)','绝对值','1','1','1','非聚合函数');</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B107" s="22">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>617</v>
+        <v>56</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>959</v>
+        <v>1043</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>955</v>
+        <v>966</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="G107" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('200','md5','md5(e: Column)','计算MD5摘要，返回32位，16进制字符串','1','1','1','混杂misc函数');</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('205','array','array(cols: Column*)','多列合并为array，cols必须为同类型','1','1','1','非聚合函数');</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B108" s="22">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>963</v>
+        <v>613</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>961</v>
+        <v>1044</v>
       </c>
       <c r="E108" s="23" t="s">
-        <v>956</v>
+        <v>967</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="G108" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('201','sha1','sha1(e: Column)','计算SHA-1摘要，返回40位，16进制字符串','1','1','1','混杂misc函数');</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('206','map','map(cols: Column*)','将多列组织为map，输入列必须为（key,value)形式，各列的key/value分别为同一类型。','1','1','1','非聚合函数');</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B109" s="22">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>669</v>
+        <v>1087</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>962</v>
+        <v>1086</v>
       </c>
       <c r="E109" s="23" t="s">
-        <v>957</v>
+        <v>968</v>
       </c>
       <c r="F109" s="23" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="G109" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('202','sha2','sha2(e: Column, numBits: Int)','计算SHA-1摘要，返回numBits位，16进制字符串。numBits支持224, 256, 384, or 512.','1','1','1','混杂misc函数');</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B110" s="22"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('207','bitwiseNOT','bitwiseNOT(e: Column)','Computes bitwise NOT.','1','1','1','非聚合函数');</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B110" s="22">
+        <v>208</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D110" s="23" t="s">
+        <v>969</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>970</v>
+      </c>
+      <c r="F110" s="23" t="s">
+        <v>964</v>
+      </c>
       <c r="G110" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('','','','','1','1','1','');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('208','broadcast','broadcast[T](df: Dataset[T]): Dataset[T]','将df变量广播，用于实现broadcast join。如left.join(broadcast(right), “joinKey”)','1','1','1','非聚合函数');</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B111" s="22">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>1042</v>
+        <v>1127</v>
       </c>
       <c r="E111" s="23" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="F111" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G111" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('204','abs','abs(e: Column)','绝对值','1','1','1','非聚合函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('209','coalesce','coalesce(e: Column*)','返回第一个非空值','1','1','1','非聚合函数');</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B112" s="22">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>56</v>
+        <v>1126</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>1043</v>
+        <v>1125</v>
       </c>
       <c r="E112" s="23" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="F112" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G112" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('205','array','array(cols: Column*)','多列合并为array，cols必须为同类型','1','1','1','非聚合函数');</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('210','col','col(colName: String)','返回colName对应的Column','1','1','1','非聚合函数');</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B113" s="22">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>613</v>
+        <v>1124</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>1044</v>
+        <v>1123</v>
       </c>
       <c r="E113" s="23" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="F113" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G113" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('206','map','map(cols: Column*)','将多列组织为map，输入列必须为（key,value)形式，各列的key/value分别为同一类型。','1','1','1','非聚合函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('211','column','column(colName: String)','col函数的别名','1','1','1','非聚合函数');</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B114" s="22">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>1087</v>
+        <v>1122</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>1086</v>
+        <v>1121</v>
       </c>
       <c r="E114" s="23" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="F114" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G114" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('207','bitwiseNOT','bitwiseNOT(e: Column)','Computes bitwise NOT.','1','1','1','非聚合函数');</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('212','expr','expr(expr: String)','解析expr表达式，将返回值存于Column，并返回这个Column。','1','1','1','非聚合函数');</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B115" s="22">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>1128</v>
+        <v>573</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>969</v>
+        <v>1120</v>
       </c>
       <c r="E115" s="23" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="F115" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G115" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('208','broadcast','broadcast[T](df: Dataset[T]): Dataset[T]','将df变量广播，用于实现broadcast join。如left.join(broadcast(right), “joinKey”)','1','1','1','非聚合函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('213','greatest','greatest(exprs: Column*)','返回多列中的最大值，跳过Null','1','1','1','非聚合函数');</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B116" s="22">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>525</v>
+        <v>600</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="E116" s="23" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="F116" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G116" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('209','coalesce','coalesce(e: Column*)','返回第一个非空值','1','1','1','非聚合函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('214','least','least(exprs: Column*)','返回多列中的最小值，跳过Null','1','1','1','非聚合函数');</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B117" s="22">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>1126</v>
+        <v>585</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="E117" s="23" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="F117" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G117" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('210','col','col(colName: String)','返回colName对应的Column','1','1','1','非聚合函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('215','input_file_name','input_file_name()','返回当前任务的文件名 ？？','1','1','1','非聚合函数');</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B118" s="22">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>1124</v>
+        <v>588</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E118" s="23" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="F118" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G118" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('211','column','column(colName: String)','col函数的别名','1','1','1','非聚合函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('216','isnan','isnan(e: Column)','检查是否NaN（非数值）','1','1','1','非聚合函数');</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B119" s="22">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>1122</v>
+        <v>590</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="E119" s="23" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="F119" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G119" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('212','expr','expr(expr: String)','解析expr表达式，将返回值存于Column，并返回这个Column。','1','1','1','非聚合函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('217','isnull','isnull(e: Column)','检查是否为Null','1','1','1','非聚合函数');</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B120" s="22">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>573</v>
+        <v>1115</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="E120" s="23" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="F120" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G120" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('213','greatest','greatest(exprs: Column*)','返回多列中的最大值，跳过Null','1','1','1','非聚合函数');</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('218','lit','lit(literal: Any)','将字面量(literal)创建一个Column','1','1','1','非聚合函数');</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" ht="54" x14ac:dyDescent="0.15">
       <c r="B121" s="22">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>600</v>
+        <v>1113</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>1119</v>
+        <v>981</v>
       </c>
       <c r="E121" s="23" t="s">
-        <v>976</v>
+        <v>1137</v>
       </c>
       <c r="F121" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G121" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('214','least','least(exprs: Column*)','返回多列中的最小值，跳过Null','1','1','1','非聚合函数');</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('219','typedLit','typedLit[T](literal: T)(implicit arg0: scala.reflect.api.JavaUniverse.TypeTag[T])','将字面量(literal)创建一个Column，literal支持 scala types e.g.: List, Seq and Map.','1','1','1','非聚合函数');</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B122" s="22">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>585</v>
+        <v>1112</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="E122" s="23" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="F122" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G122" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('215','input_file_name','input_file_name()','返回当前任务的文件名 ？？','1','1','1','非聚合函数');</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('220','monotonically_increasing_id','monotonically_increasing_id()','返回单调递增唯一ID，但不同分区的ID不连续。ID为64位整型。','1','1','1','非聚合函数');</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B123" s="22">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>588</v>
+        <v>625</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>1117</v>
+        <v>983</v>
       </c>
       <c r="E123" s="23" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="F123" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G123" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('216','isnan','isnan(e: Column)','检查是否NaN（非数值）','1','1','1','非聚合函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('221','nanvl','nanvl(col1: Column, col2: Column)','col1为NaN则返回col2','1','1','1','非聚合函数');</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B124" s="22">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>590</v>
+        <v>1109</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="E124" s="23" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="F124" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G124" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('217','isnull','isnull(e: Column)','检查是否为Null','1','1','1','非聚合函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('222','negate','negate(e: Column)','负数，同df.select( -df(“amount”) )','1','1','1','非聚合函数');</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B125" s="22">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>1115</v>
+        <v>628</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E125" s="23" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="F125" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G125" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('218','lit','lit(literal: Any)','将字面量(literal)创建一个Column','1','1','1','非聚合函数');</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" ht="54" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('223','not','not(e: Column)','取反，同df.filter( !df(“isActive”) )','1','1','1','非聚合函数');</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B126" s="22">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>1113</v>
+        <v>650</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>981</v>
+        <v>1107</v>
       </c>
       <c r="E126" s="23" t="s">
-        <v>1137</v>
+        <v>987</v>
       </c>
       <c r="F126" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G126" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('219','typedLit','typedLit[T](literal: T)(implicit arg0: scala.reflect.api.JavaUniverse.TypeTag[T])','将字面量(literal)创建一个Column，literal支持 scala types e.g.: List, Seq and Map.','1','1','1','非聚合函数');</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('224','rand','rand()','随机数[0.0, 1.0]','1','1','1','非聚合函数');</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B127" s="22">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>1112</v>
+        <v>650</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="E127" s="23" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="F127" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G127" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('220','monotonically_increasing_id','monotonically_increasing_id()','返回单调递增唯一ID，但不同分区的ID不连续。ID为64位整型。','1','1','1','非聚合函数');</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <f t="shared" ref="G127:G182" si="2">"insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('"&amp;B127&amp;"','"&amp;C127&amp;"','"&amp;D127&amp;"','"&amp;E127&amp;"','1','1','1','"&amp;F127&amp;"');"</f>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('225','rand','rand(seed: Long)','随机数[0.0, 1.0]，使用seed种子','1','1','1','非聚合函数');</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B128" s="22">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>625</v>
+        <v>651</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>983</v>
+        <v>1105</v>
       </c>
       <c r="E128" s="23" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="F128" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G128" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('221','nanvl','nanvl(col1: Column, col2: Column)','col1为NaN则返回col2','1','1','1','非聚合函数');</v>
+        <f t="shared" si="2"/>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('226','randn','randn()','随机数，从正态分布取','1','1','1','非聚合函数');</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B129" s="22">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>1109</v>
+        <v>651</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E129" s="23" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="F129" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G129" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('222','negate','negate(e: Column)','负数，同df.select( -df(“amount”) )','1','1','1','非聚合函数');</v>
+        <f t="shared" si="2"/>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('227','randn','randn(seed: Long)','同上','1','1','1','非聚合函数');</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B130" s="22">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>628</v>
+        <v>683</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="E130" s="23" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="F130" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G130" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('223','not','not(e: Column)','取反，同df.filter( !df(“isActive”) )','1','1','1','非聚合函数');</v>
+        <f t="shared" si="2"/>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('228','spark_partition_id','spark_partition_id()','返回partition ID','1','1','1','非聚合函数');</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B131" s="22">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>650</v>
+        <v>693</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="E131" s="23" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="F131" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G131" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('224','rand','rand()','随机数[0.0, 1.0]','1','1','1','非聚合函数');</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.15">
+        <f t="shared" si="2"/>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('229','struct','struct(cols: Column*)','多列组合成新的struct column ？？','1','1','1','非聚合函数');</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B132" s="22">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>650</v>
+        <v>718</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>1106</v>
+        <v>993</v>
       </c>
       <c r="E132" s="23" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="F132" s="23" t="s">
         <v>964</v>
       </c>
       <c r="G132" s="18" t="str">
-        <f t="shared" ref="G132:G187" si="2">"insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('"&amp;B132&amp;"','"&amp;C132&amp;"','"&amp;D132&amp;"','"&amp;E132&amp;"','1','1','1','"&amp;F132&amp;"');"</f>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('225','rand','rand(seed: Long)','随机数[0.0, 1.0]，使用seed种子','1','1','1','非聚合函数');</v>
+        <f t="shared" si="2"/>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('230','when','when(condition: Column, value: Any)','当condition为true返回value，如people.select(when(people(“gender”) === “male”, 0).when(people(“gender”) === “female”, 1).otherwise(2)) 如果没有otherwise且condition全部没命中，则返回null.','1','1','1','非聚合函数');</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B133" s="22">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>651</v>
+        <v>1046</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>1105</v>
+        <v>1045</v>
       </c>
       <c r="E133" s="23" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="F133" s="23" t="s">
-        <v>964</v>
+        <v>995</v>
       </c>
       <c r="G133" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('226','randn','randn()','随机数，从正态分布取','1','1','1','非聚合函数');</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('232','asc','asc(columnName: String)','正序','1','1','1','排序函数');</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B134" s="22">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>651</v>
+        <v>1101</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="E134" s="23" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="F134" s="23" t="s">
-        <v>964</v>
+        <v>995</v>
       </c>
       <c r="G134" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('227','randn','randn(seed: Long)','同上','1','1','1','非聚合函数');</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('233','asc_nulls_first','asc_nulls_first(columnName: String)','正序，null排最前','1','1','1','排序函数');</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B135" s="22">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>683</v>
+        <v>1099</v>
       </c>
       <c r="D135" s="23" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="E135" s="23" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="F135" s="23" t="s">
-        <v>964</v>
+        <v>995</v>
       </c>
       <c r="G135" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('228','spark_partition_id','spark_partition_id()','返回partition ID','1','1','1','非聚合函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('234','asc_nulls_last','asc_nulls_last(columnName: String)','正序，null排最后','1','1','1','排序函数');</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B136" s="22">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>693</v>
+        <v>1097</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="E136" s="23" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="F136" s="23" t="s">
-        <v>964</v>
+        <v>995</v>
       </c>
       <c r="G136" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('229','struct','struct(cols: Column*)','多列组合成新的struct column ？？','1','1','1','非聚合函数');</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('235','desc','desc(columnName: String)','逆序 e.g：df.sort(asc(“dept”), desc(“age”))','1','1','1','排序函数');</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B137" s="22">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>718</v>
+        <v>1095</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>993</v>
+        <v>1094</v>
       </c>
       <c r="E137" s="23" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="F137" s="23" t="s">
-        <v>964</v>
+        <v>995</v>
       </c>
       <c r="G137" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('230','when','when(condition: Column, value: Any)','当condition为true返回value，如people.select(when(people(“gender”) === “male”, 0).when(people(“gender”) === “female”, 1).otherwise(2)) 如果没有otherwise且condition全部没命中，则返回null.','1','1','1','非聚合函数');</v>
-      </c>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('236','desc_nulls_first','desc_nulls_first(columnName: String)','正序，null排最前','1','1','1','排序函数');</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B138" s="22">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>1046</v>
+        <v>1093</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>1045</v>
+        <v>1092</v>
       </c>
       <c r="E138" s="23" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F138" s="23" t="s">
         <v>995</v>
       </c>
       <c r="G138" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('232','asc','asc(columnName: String)','正序','1','1','1','排序函数');</v>
-      </c>
-    </row>
-    <row r="139" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('237','desc_nulls_last','desc_nulls_last(columnName: String)','正序，null排最后','1','1','1','排序函数');</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B139" s="22">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>1101</v>
+        <v>509</v>
       </c>
       <c r="D139" s="23" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="E139" s="23" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="F139" s="23" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G139" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('233','asc_nulls_first','asc_nulls_first(columnName: String)','正序，null排最前','1','1','1','排序函数');</v>
-      </c>
-    </row>
-    <row r="140" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('239','ascii','ascii(e: Column)','计算第一个字符的ascii码','1','1','1','字符串函数');</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B140" s="22">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>1099</v>
+        <v>517</v>
       </c>
       <c r="D140" s="23" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="E140" s="23" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="F140" s="23" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G140" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('234','asc_nulls_last','asc_nulls_last(columnName: String)','正序，null排最后','1','1','1','排序函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('240','base64','base64(e: Column)','base64转码','1','1','1','字符串函数');</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B141" s="22">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>1097</v>
+        <v>710</v>
       </c>
       <c r="D141" s="23" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="E141" s="23" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="F141" s="23" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G141" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('235','desc','desc(columnName: String)','逆序 e.g：df.sort(asc(“dept”), desc(“age”))','1','1','1','排序函数');</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('241','unbase64','unbase64(e: Column)','base64解码','1','1','1','字符串函数');</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B142" s="22">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>1095</v>
+        <v>528</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="E142" s="23" t="s">
-        <v>998</v>
+        <v>1005</v>
       </c>
       <c r="F142" s="23" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G142" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('236','desc_nulls_first','desc_nulls_first(columnName: String)','正序，null排最前','1','1','1','排序函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('242','concat','concat(exprs: Column*)','连接多列字符串','1','1','1','字符串函数');</v>
       </c>
     </row>
     <row r="143" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B143" s="22">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>1093</v>
+        <v>529</v>
       </c>
       <c r="D143" s="23" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="E143" s="23" t="s">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="F143" s="23" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G143" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('237','desc_nulls_last','desc_nulls_last(columnName: String)','正序，null排最后','1','1','1','排序函数');</v>
-      </c>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('243','concat_ws','concat_ws(sep: String, exprs: Column*)','使用sep作为分隔符连接多列字符串','1','1','1','字符串函数');</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B144" s="22">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C144" s="23" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="E144" s="23" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="F144" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G144" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('239','ascii','ascii(e: Column)','计算第一个字符的ascii码','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('244','decode','decode(value: Column, charset: String)','解码','1','1','1','字符串函数');</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B145" s="22">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>517</v>
+        <v>558</v>
       </c>
       <c r="D145" s="23" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="E145" s="23" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="F145" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G145" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('240','base64','base64(e: Column)','base64转码','1','1','1','字符串函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('245','encode','encode(value: Column, charset: String)','转码，charset支持 ‘US-ASCII’, ‘ISO-8859-1’, ‘UTF-8’, ‘UTF-16BE’, ‘UTF-16LE’, ‘UTF-16’。','1','1','1','字符串函数');</v>
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B146" s="22">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>710</v>
+        <v>567</v>
       </c>
       <c r="D146" s="23" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="E146" s="23" t="s">
-        <v>1004</v>
+        <v>1133</v>
       </c>
       <c r="F146" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G146" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('241','unbase64','unbase64(e: Column)','base64解码','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('246','format_number','format_number(x: Column, d: Int)','格式化‘#,###,###.##’形式的字符串','1','1','1','字符串函数');</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B147" s="22">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>528</v>
+        <v>568</v>
       </c>
       <c r="D147" s="23" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="E147" s="23" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="F147" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G147" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('242','concat','concat(exprs: Column*)','连接多列字符串','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="148" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('247','format_string','format_string(format: String, arguments: Column*)','将arguments按format格式化，格式为printf-style。','1','1','1','字符串函数');</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B148" s="22">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C148" s="23" t="s">
-        <v>529</v>
+        <v>583</v>
       </c>
       <c r="D148" s="23" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="E148" s="23" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="F148" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G148" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('243','concat_ws','concat_ws(sep: String, exprs: Column*)','使用sep作为分隔符连接多列字符串','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="149" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('248','initcap','initcap(e: Column)','单词首字母大写','1','1','1','字符串函数');</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B149" s="22">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>552</v>
+        <v>610</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="E149" s="23" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="F149" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G149" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('244','decode','decode(value: Column, charset: String)','解码','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="150" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('249','lower','lower(e: Column)','转小写','1','1','1','字符串函数');</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B150" s="22">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C150" s="23" t="s">
-        <v>558</v>
+        <v>713</v>
       </c>
       <c r="D150" s="23" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="E150" s="23" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="F150" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G150" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('245','encode','encode(value: Column, charset: String)','转码，charset支持 ‘US-ASCII’, ‘ISO-8859-1’, ‘UTF-8’, ‘UTF-16BE’, ‘UTF-16LE’, ‘UTF-16’。','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('250','upper','upper(e: Column)','转大写','1','1','1','字符串函数');</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B151" s="22">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C151" s="23" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="D151" s="23" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="E151" s="23" t="s">
-        <v>1133</v>
+        <v>1013</v>
       </c>
       <c r="F151" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G151" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('246','format_number','format_number(x: Column, d: Int)','格式化‘#,###,###.##’形式的字符串','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('251','instr','instr(str: Column, substring: String)','substring在str中第一次出现的位置','1','1','1','字符串函数');</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B152" s="22">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C152" s="23" t="s">
-        <v>568</v>
+        <v>601</v>
       </c>
       <c r="D152" s="23" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="E152" s="23" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="F152" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G152" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('247','format_string','format_string(format: String, arguments: Column*)','将arguments按format格式化，格式为printf-style。','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('252','length','length(e: Column)','字符串长度','1','1','1','字符串函数');</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B153" s="22">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C153" s="23" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="D153" s="23" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="E153" s="23" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="F153" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G153" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('248','initcap','initcap(e: Column)','单词首字母大写','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('253','levenshtein','levenshtein(l: Column, r: Column)','计算两个字符串之间的编辑距离（Levenshtein distance）','1','1','1','字符串函数');</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B154" s="22">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C154" s="23" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D154" s="23" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="E154" s="23" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="F154" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G154" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('249','lower','lower(e: Column)','转小写','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('254','locate','locate(substr: String, str: Column)','substring在str中第一次出现的位置，位置编号从1开始，0表示未找到。','1','1','1','字符串函数');</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B155" s="22">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C155" s="23" t="s">
-        <v>713</v>
+        <v>605</v>
       </c>
       <c r="D155" s="23" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="E155" s="23" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="F155" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G155" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('250','upper','upper(e: Column)','转大写','1','1','1','字符串函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('255','locate','locate(substr: String, str: Column, pos: Int)','同上，但从pos位置后查找。','1','1','1','字符串函数');</v>
       </c>
     </row>
     <row r="156" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B156" s="22">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C156" s="23" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="D156" s="23" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="E156" s="23" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="F156" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G156" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('251','instr','instr(str: Column, substring: String)','substring在str中第一次出现的位置','1','1','1','字符串函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('256','lpad','lpad(str: Column, len: Int, pad: String)','字符串左填充。用pad字符填充str的字符串至len长度。有对应的rpad，右填充。','1','1','1','字符串函数');</v>
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B157" s="22">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C157" s="23" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="D157" s="23" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="E157" s="23" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="F157" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G157" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('252','length','length(e: Column)','字符串长度','1','1','1','字符串函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('257','ltrim','ltrim(e: Column)','剪掉左边的空格、空白字符，对应有rtrim.','1','1','1','字符串函数');</v>
       </c>
     </row>
     <row r="158" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B158" s="22">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C158" s="23" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="E158" s="23" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="F158" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G158" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('253','levenshtein','levenshtein(l: Column, r: Column)','计算两个字符串之间的编辑距离（Levenshtein distance）','1','1','1','字符串函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('258','ltrim','ltrim(e: Column, trimString: String)','剪掉左边的指定字符,对应有rtrim.','1','1','1','字符串函数');</v>
       </c>
     </row>
     <row r="159" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B159" s="22">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C159" s="23" t="s">
-        <v>605</v>
+        <v>707</v>
       </c>
       <c r="D159" s="23" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="E159" s="23" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="F159" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G159" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('254','locate','locate(substr: String, str: Column)','substring在str中第一次出现的位置，位置编号从1开始，0表示未找到。','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="160" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('259','trim','trim(e: Column, trimString: String)','剪掉左右两边的指定字符','1','1','1','字符串函数');</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B160" s="22">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C160" s="23" t="s">
-        <v>605</v>
+        <v>707</v>
       </c>
       <c r="D160" s="23" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="E160" s="23" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="F160" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G160" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('255','locate','locate(substr: String, str: Column, pos: Int)','同上，但从pos位置后查找。','1','1','1','字符串函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('260','trim','trim(e: Column)','剪掉左右两边的空格、空白字符','1','1','1','字符串函数');</v>
       </c>
     </row>
     <row r="161" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B161" s="22">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C161" s="23" t="s">
-        <v>611</v>
+        <v>654</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="E161" s="23" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="F161" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G161" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('256','lpad','lpad(str: Column, len: Int, pad: String)','字符串左填充。用pad字符填充str的字符串至len长度。有对应的rpad，右填充。','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('261','regexp_extract','regexp_extract(e: Column, exp: String, groupIdx: Int)','正则提取匹配的组','1','1','1','字符串函数');</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B162" s="22">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C162" s="23" t="s">
-        <v>612</v>
+        <v>655</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="E162" s="23" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="F162" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G162" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('257','ltrim','ltrim(e: Column)','剪掉左边的空格、空白字符，对应有rtrim.','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="163" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('262','regexp_replace','regexp_replace(e: Column, pattern: Column, replacement: Column)','正则替换匹配的部分，这里参数为列。','1','1','1','字符串函数');</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B163" s="22">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C163" s="23" t="s">
-        <v>612</v>
+        <v>655</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="E163" s="23" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="F163" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G163" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('258','ltrim','ltrim(e: Column, trimString: String)','剪掉左边的指定字符,对应有rtrim.','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="164" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('263','regexp_replace','regexp_replace(e: Column, pattern: String, replacement: String)','正则替换匹配的部分','1','1','1','字符串函数');</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B164" s="22">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C164" s="23" t="s">
-        <v>707</v>
+        <v>656</v>
       </c>
       <c r="D164" s="23" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="E164" s="23" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="F164" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G164" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('259','trim','trim(e: Column, trimString: String)','剪掉左右两边的指定字符','1','1','1','字符串函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('264','repeat','repeat(str: Column, n: Int)','将str重复n次返回','1','1','1','字符串函数');</v>
       </c>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B165" s="22">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C165" s="23" t="s">
-        <v>707</v>
+        <v>657</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="E165" s="23" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="F165" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G165" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('260','trim','trim(e: Column)','剪掉左右两边的空格、空白字符','1','1','1','字符串函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('265','reverse','reverse(str: Column)','将str反转','1','1','1','字符串函数');</v>
       </c>
     </row>
     <row r="166" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B166" s="22">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C166" s="23" t="s">
-        <v>654</v>
+        <v>681</v>
       </c>
       <c r="D166" s="23" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="E166" s="23" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="F166" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G166" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('261','regexp_extract','regexp_extract(e: Column, exp: String, groupIdx: Int)','正则提取匹配的组','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="167" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('266','soundex','soundex(e: Column)','计算桑迪克斯代码（soundex code）PS:用于按英语发音来索引姓名,发音相同但拼写不同的单词，会映射成同一个码。','1','1','1','字符串函数');</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B167" s="22">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C167" s="23" t="s">
-        <v>655</v>
+        <v>684</v>
       </c>
       <c r="D167" s="23" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="E167" s="23" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="F167" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G167" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('262','regexp_replace','regexp_replace(e: Column, pattern: Column, replacement: Column)','正则替换匹配的部分，这里参数为列。','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="168" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('267','split','split(str: Column, pattern: String)','用pattern分割str','1','1','1','字符串函数');</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B168" s="22">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C168" s="23" t="s">
-        <v>655</v>
+        <v>695</v>
       </c>
       <c r="D168" s="23" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="E168" s="23" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="F168" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G168" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('263','regexp_replace','regexp_replace(e: Column, pattern: String, replacement: String)','正则替换匹配的部分','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('268','substring','substring(str: Column, pos: Int, len: Int)','在str上截取从pos位置开始长度为len的子字符串。','1','1','1','字符串函数');</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B169" s="22">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C169" s="23" t="s">
-        <v>656</v>
+        <v>696</v>
       </c>
       <c r="D169" s="23" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E169" s="23" t="s">
-        <v>1026</v>
-      </c>
+        <v>1059</v>
+      </c>
+      <c r="E169" s="23"/>
       <c r="F169" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G169" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('264','repeat','repeat(str: Column, n: Int)','将str重复n次返回','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('269','substring_index','substring_index(str: Column, delim: String, count: Int)','','1','1','1','字符串函数');</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B170" s="22">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C170" s="23" t="s">
-        <v>657</v>
+        <v>706</v>
       </c>
       <c r="D170" s="23" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="E170" s="23" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="F170" s="23" t="s">
         <v>996</v>
       </c>
       <c r="G170" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('265','reverse','reverse(str: Column)','将str反转','1','1','1','字符串函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('270','translate','translate(src: Column, matchingString: String, replaceString: String)','把src中的matchingString全换成replaceString。','1','1','1','字符串函数');</v>
       </c>
     </row>
     <row r="171" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B171" s="22">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C171" s="23" t="s">
-        <v>681</v>
+        <v>1057</v>
       </c>
       <c r="D171" s="23" t="s">
-        <v>1062</v>
+        <v>1032</v>
       </c>
       <c r="E171" s="23" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="F171" s="23" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="G171" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('266','soundex','soundex(e: Column)','计算桑迪克斯代码（soundex code）PS:用于按英语发音来索引姓名,发音相同但拼写不同的单词，会映射成同一个码。','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="172" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('272','callUDF','callUDF(udfName: String, cols: Column*)','调用UDF','1','1','1','UDF函数');</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B172" s="22">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C172" s="23" t="s">
-        <v>684</v>
+        <v>1034</v>
       </c>
       <c r="D172" s="23" t="s">
-        <v>1061</v>
+        <v>1034</v>
       </c>
       <c r="E172" s="23" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="F172" s="23" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="G172" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('267','split','split(str: Column, pattern: String)','用pattern分割str','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="173" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('273','udf','udf','定义UDF','1','1','1','UDF函数');</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B173" s="22">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C173" s="23" t="s">
-        <v>695</v>
+        <v>539</v>
       </c>
       <c r="D173" s="23" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="E173" s="23" t="s">
-        <v>1030</v>
+        <v>1138</v>
       </c>
       <c r="F173" s="23" t="s">
-        <v>996</v>
+        <v>1036</v>
       </c>
       <c r="G173" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('268','substring','substring(str: Column, pos: Int, len: Int)','在str上截取从pos位置开始长度为len的子字符串。','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="174" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('275','cume_dist','cume_dist()','窗口分区内值的累积分布','1','1','1','窗口函数');</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B174" s="22">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C174" s="23" t="s">
-        <v>696</v>
+        <v>1055</v>
       </c>
       <c r="D174" s="23" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E174" s="23"/>
+        <v>1054</v>
+      </c>
+      <c r="E174" s="23" t="s">
+        <v>1139</v>
+      </c>
       <c r="F174" s="23" t="s">
-        <v>996</v>
+        <v>1036</v>
       </c>
       <c r="G174" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('269','substring_index','substring_index(str: Column, delim: String, count: Int)','','1','1','1','字符串函数');</v>
-      </c>
-    </row>
-    <row r="175" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('276','currentRow','currentRow()','返回表示窗口分区中的当前行的特殊框架边界。','1','1','1','窗口函数');</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B175" s="22">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C175" s="23" t="s">
-        <v>706</v>
+        <v>652</v>
       </c>
       <c r="D175" s="23" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="E175" s="23" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="F175" s="23" t="s">
-        <v>996</v>
+        <v>1036</v>
       </c>
       <c r="G175" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('270','translate','translate(src: Column, matchingString: String, replaceString: String)','把src中的matchingString全换成replaceString。','1','1','1','字符串函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('277','rank','rank()','排名，返回数据项在分组中的排名，排名相等会在名次中留下空位 1,2,2,4。','1','1','1','窗口函数');</v>
       </c>
     </row>
     <row r="176" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B176" s="22">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C176" s="23" t="s">
-        <v>1057</v>
+        <v>554</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>1032</v>
+        <v>1052</v>
       </c>
       <c r="E176" s="23" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="F176" s="23" t="s">
-        <v>1001</v>
+        <v>1036</v>
       </c>
       <c r="G176" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('272','callUDF','callUDF(udfName: String, cols: Column*)','调用UDF','1','1','1','UDF函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('278','dense_rank','dense_rank()','排名，返回数据项在分组中的排名，排名相等会在名次中不会留下空位 1,2,2,3。','1','1','1','窗口函数');</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B177" s="22">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C177" s="23" t="s">
-        <v>1034</v>
+        <v>662</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>1034</v>
+        <v>1051</v>
       </c>
       <c r="E177" s="23" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="F177" s="23" t="s">
-        <v>1001</v>
+        <v>1036</v>
       </c>
       <c r="G177" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('273','udf','udf','定义UDF','1','1','1','UDF函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('279','row_number','row_number()','行号，为每条记录返回一个数字 1,2,3,4','1','1','1','窗口函数');</v>
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B178" s="22">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C178" s="23" t="s">
-        <v>539</v>
+        <v>636</v>
       </c>
       <c r="D178" s="23" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E178" s="23" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="F178" s="23" t="s">
         <v>1036</v>
       </c>
       <c r="G178" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('275','cume_dist','cume_dist()','窗口分区内值的累积分布','1','1','1','窗口函数');</v>
-      </c>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('280','percent_rank','percent_rank()','返回一个窗口分区内行的相对等级(即百分比)。','1','1','1','窗口函数');</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B179" s="22">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C179" s="23" t="s">
-        <v>1055</v>
+        <v>594</v>
       </c>
       <c r="D179" s="23" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="E179" s="23" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="F179" s="23" t="s">
         <v>1036</v>
       </c>
       <c r="G179" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('276','currentRow','currentRow()','返回表示窗口分区中的当前行的特殊框架边界。','1','1','1','窗口函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('281','lag','lag(e: Column, offset: Int, defaultValue: Any)','偏移当前行之前的行','1','1','1','窗口函数');</v>
       </c>
     </row>
     <row r="180" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B180" s="22">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C180" s="23" t="s">
-        <v>652</v>
+        <v>599</v>
       </c>
       <c r="D180" s="23" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="E180" s="23" t="s">
-        <v>1037</v>
+        <v>1142</v>
       </c>
       <c r="F180" s="23" t="s">
         <v>1036</v>
       </c>
       <c r="G180" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('277','rank','rank()','排名，返回数据项在分组中的排名，排名相等会在名次中留下空位 1,2,2,4。','1','1','1','窗口函数');</v>
-      </c>
-    </row>
-    <row r="181" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('282','lead','lead(e: Column, offset: Int, defaultValue: Any)','返回当前行后偏移行的值','1','1','1','窗口函数');</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B181" s="22">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C181" s="23" t="s">
-        <v>554</v>
+        <v>630</v>
       </c>
       <c r="D181" s="23" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E181" s="23" t="s">
-        <v>1038</v>
+        <v>1143</v>
       </c>
       <c r="F181" s="23" t="s">
         <v>1036</v>
       </c>
       <c r="G181" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('278','dense_rank','dense_rank()','排名，返回数据项在分组中的排名，排名相等会在名次中不会留下空位 1,2,2,3。','1','1','1','窗口函数');</v>
+        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('283','ntile','ntile(n: Int)','返回一个有序窗口分区中的ntile组id(从1到n)。','1','1','1','窗口函数');</v>
       </c>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B182" s="22">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C182" s="23" t="s">
-        <v>662</v>
+        <v>1048</v>
       </c>
       <c r="D182" s="23" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="E182" s="23" t="s">
-        <v>1039</v>
+        <v>1144</v>
       </c>
       <c r="F182" s="23" t="s">
         <v>1036</v>
       </c>
       <c r="G182" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('279','row_number','row_number()','行号，为每条记录返回一个数字 1,2,3,4','1','1','1','窗口函数');</v>
-      </c>
-    </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B183" s="22">
-        <v>280</v>
-      </c>
-      <c r="C183" s="23" t="s">
-        <v>636</v>
-      </c>
-      <c r="D183" s="23" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E183" s="23" t="s">
-        <v>1140</v>
-      </c>
-      <c r="F183" s="23" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G183" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('280','percent_rank','percent_rank()','返回一个窗口分区内行的相对等级(即百分比)。','1','1','1','窗口函数');</v>
-      </c>
-    </row>
-    <row r="184" spans="2:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="B184" s="22">
-        <v>281</v>
-      </c>
-      <c r="C184" s="23" t="s">
-        <v>594</v>
-      </c>
-      <c r="D184" s="23" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E184" s="23" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F184" s="23" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G184" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('281','lag','lag(e: Column, offset: Int, defaultValue: Any)','偏移当前行之前的行','1','1','1','窗口函数');</v>
-      </c>
-    </row>
-    <row r="185" spans="2:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="B185" s="22">
-        <v>282</v>
-      </c>
-      <c r="C185" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="D185" s="23" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E185" s="23" t="s">
-        <v>1142</v>
-      </c>
-      <c r="F185" s="23" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G185" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('282','lead','lead(e: Column, offset: Int, defaultValue: Any)','返回当前行后偏移行的值','1','1','1','窗口函数');</v>
-      </c>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B186" s="22">
-        <v>283</v>
-      </c>
-      <c r="C186" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="D186" s="23" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E186" s="23" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F186" s="23" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G186" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('283','ntile','ntile(n: Int)','返回一个有序窗口分区中的ntile组id(从1到n)。','1','1','1','窗口函数');</v>
-      </c>
-    </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B187" s="22">
-        <v>284</v>
-      </c>
-      <c r="C187" s="23" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D187" s="23" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E187" s="23" t="s">
-        <v>1144</v>
-      </c>
-      <c r="F187" s="23" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G187" s="18" t="str">
         <f t="shared" si="2"/>
         <v>insert into edw_sparksql_gram(esg_id,function_name,function_example,function_desc,is_available,is_udf,is_sparksql,function_classify) values ('284','unboundedFollowing','unboundedFollowing()','返回表示窗口分区中最后一行的特殊框架边界。','1','1','1','窗口函数');</v>
       </c>
